--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_9_3.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_9_3.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2221163.126179961</v>
+        <v>-2223990.107821752</v>
       </c>
     </row>
     <row r="7">
@@ -659,7 +659,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>276.1565137023554</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -668,13 +668,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>276.1565137023554</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>276.1565137023554</v>
+        <v>243.2386572690346</v>
       </c>
       <c r="H2" t="n">
-        <v>243.2386572690347</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -716,13 +716,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -744,19 +744,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.2681884137393</v>
+        <v>22.11896402482333</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>86.80307722268739</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>95.48084390037957</v>
       </c>
       <c r="S3" t="n">
-        <v>170.2839726213331</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -795,16 +795,16 @@
         <v>225.9364262421938</v>
       </c>
       <c r="V3" t="n">
-        <v>80.75164273443747</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -829,7 +829,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.9278262653587</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -862,13 +862,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>7.203367682519121</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>175.1311939478779</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -896,22 +896,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>280.0774387524273</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>28.85518579062488</v>
       </c>
       <c r="G5" t="n">
-        <v>14.72650339009234</v>
+        <v>14.72650339009235</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>333.5734443826736</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -941,25 +941,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>113.6722510839358</v>
+        <v>113.6722510839362</v>
       </c>
       <c r="S5" t="n">
-        <v>195.8891344618347</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2995541778331</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -978,7 +978,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
@@ -990,10 +990,10 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>109.2577951666207</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>78.78148970948743</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1026,10 +1026,10 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>198.9220132110724</v>
+        <v>107.4725815631224</v>
       </c>
       <c r="U6" t="n">
-        <v>73.72933424406645</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1038,7 +1038,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -1072,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>34.41144742047045</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1108,13 +1108,13 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.3049305133495</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>68.57873460998934</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>275.8158762885271</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1145,7 +1145,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>51.78216238586165</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1178,28 +1178,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1300,10 +1300,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>27.20320529449381</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1333,10 +1333,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>8.777525990011616</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1351,10 +1351,10 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1370,7 +1370,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>306.9299613593337</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1427,7 +1427,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>269.4093280584612</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,10 +1576,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>7.601081015447153</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
         <v>286.2118382056129</v>
@@ -1588,10 +1588,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>237.6367451873098</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1667,7 +1667,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174132</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>43.86979659103376</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.6861009032421</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>141.7347076965137</v>
       </c>
       <c r="I16" t="n">
-        <v>21.44576819320586</v>
+        <v>86.13649374674407</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>73.65767465442973</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>183.8488525946973</v>
@@ -2002,25 +2002,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>140.6277908842703</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.6861009032421</v>
       </c>
       <c r="H19" t="n">
         <v>141.7347076965137</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>86.13649374674407</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,10 +2050,10 @@
         <v>73.65767465442973</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>183.8488525946973</v>
       </c>
       <c r="T19" t="n">
-        <v>46.59037004494685</v>
+        <v>218.097472392356</v>
       </c>
       <c r="U19" t="n">
         <v>286.1933087134791</v>
@@ -2062,7 +2062,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>410.164406376964</v>
+        <v>410.1644063769637</v>
       </c>
       <c r="H20" t="n">
         <v>286.8518683469699</v>
@@ -2245,19 +2245,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>80.41527379555116</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>86.13649374674407</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>73.65767465442973</v>
       </c>
       <c r="S22" t="n">
         <v>183.8488525946973</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>218.097472392356</v>
       </c>
       <c r="U22" t="n">
         <v>286.1933087134791</v>
@@ -2302,7 +2302,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>219.8885718151292</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2476,22 +2476,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.6861009032421</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>81.97599399093686</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>73.65767465442973</v>
       </c>
       <c r="S25" t="n">
         <v>183.8488525946973</v>
@@ -2542,7 +2542,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>77.60816613729374</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2716,22 +2716,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>78.6210807609317</v>
       </c>
       <c r="F28" t="n">
-        <v>84.10504148604907</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.6861009032421</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>86.13649374674407</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>73.65767465442973</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>183.8488525946973</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>218.097472392356</v>
       </c>
       <c r="U28" t="n">
         <v>286.1933087134791</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2953,7 +2953,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2962,7 +2962,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.6861009032421</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>73.65767465442973</v>
       </c>
       <c r="S31" t="n">
         <v>183.8488525946973</v>
@@ -3010,7 +3010,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>146.5594257454279</v>
+        <v>55.83112320596883</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3077,13 +3077,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>60.32014642295179</v>
+        <v>60.32014642295178</v>
       </c>
       <c r="T32" t="n">
         <v>168.9926026545724</v>
       </c>
       <c r="U32" t="n">
-        <v>219.3243840645689</v>
+        <v>219.3243840645688</v>
       </c>
       <c r="V32" t="n">
         <v>296.142056117921</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.04747230221579</v>
+        <v>42.04747230221578</v>
       </c>
       <c r="S34" t="n">
         <v>152.2386502424833</v>
       </c>
       <c r="T34" t="n">
-        <v>186.4872700401421</v>
+        <v>186.487270040142</v>
       </c>
       <c r="U34" t="n">
         <v>254.5831063612652</v>
@@ -3253,7 +3253,7 @@
         <v>194.0994530368232</v>
       </c>
       <c r="Y34" t="n">
-        <v>186.9744509998809</v>
+        <v>186.9744509998808</v>
       </c>
     </row>
     <row r="35">
@@ -3551,19 +3551,19 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>60.32014642295181</v>
+        <v>60.32014642295178</v>
       </c>
       <c r="T38" t="n">
         <v>168.9926026545724</v>
       </c>
       <c r="U38" t="n">
-        <v>219.3243840645689</v>
+        <v>219.3243840645688</v>
       </c>
       <c r="V38" t="n">
         <v>296.142056117921</v>
       </c>
       <c r="W38" t="n">
-        <v>317.6307663651996</v>
+        <v>317.6307663651991</v>
       </c>
       <c r="X38" t="n">
         <v>338.1208983262551</v>
@@ -3679,7 +3679,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I40" t="n">
-        <v>54.52629139453013</v>
+        <v>54.52629139453011</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.04747230221579</v>
+        <v>42.04747230221577</v>
       </c>
       <c r="S40" t="n">
         <v>152.2386502424833</v>
       </c>
       <c r="T40" t="n">
-        <v>186.4872700401421</v>
+        <v>186.487270040142</v>
       </c>
       <c r="U40" t="n">
         <v>254.5831063612652</v>
@@ -3727,7 +3727,7 @@
         <v>194.0994530368232</v>
       </c>
       <c r="Y40" t="n">
-        <v>186.9744509998809</v>
+        <v>186.9744509998808</v>
       </c>
     </row>
     <row r="41">
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>60.32014642295181</v>
+        <v>60.32014642295182</v>
       </c>
       <c r="T41" t="n">
         <v>168.9926026545724</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.04747230221581</v>
+        <v>42.04747230221582</v>
       </c>
       <c r="S43" t="n">
         <v>152.2386502424833</v>
@@ -4025,10 +4025,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>60.32014642295178</v>
+        <v>60.32014642295177</v>
       </c>
       <c r="T44" t="n">
-        <v>168.9926026545724</v>
+        <v>168.9926026545723</v>
       </c>
       <c r="U44" t="n">
         <v>219.3243840645688</v>
@@ -4071,10 +4071,10 @@
         <v>134.5942676301787</v>
       </c>
       <c r="H45" t="n">
-        <v>85.68348164116145</v>
+        <v>85.68348164116146</v>
       </c>
       <c r="I45" t="n">
-        <v>4.866200902189007</v>
+        <v>4.866200902189021</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>148.2217778297234</v>
+        <v>148.2217778297233</v>
       </c>
       <c r="C46" t="n">
         <v>135.6366187464139</v>
@@ -4153,7 +4153,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I46" t="n">
-        <v>54.52629139453012</v>
+        <v>54.52629139453011</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4189,13 +4189,13 @@
         <v>186.487270040142</v>
       </c>
       <c r="U46" t="n">
-        <v>254.5831063612652</v>
+        <v>254.5831063612651</v>
       </c>
       <c r="V46" t="n">
-        <v>220.5274409716141</v>
+        <v>220.527440971614</v>
       </c>
       <c r="W46" t="n">
-        <v>254.9127959843771</v>
+        <v>254.912795984377</v>
       </c>
       <c r="X46" t="n">
         <v>194.0994530368232</v>
@@ -4304,31 +4304,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1104.626054809422</v>
+        <v>267.7881344992537</v>
       </c>
       <c r="C2" t="n">
-        <v>825.6800813726991</v>
+        <v>267.7881344992537</v>
       </c>
       <c r="D2" t="n">
-        <v>825.6800813726991</v>
+        <v>267.7881344992537</v>
       </c>
       <c r="E2" t="n">
-        <v>825.6800813726991</v>
+        <v>267.7881344992537</v>
       </c>
       <c r="F2" t="n">
-        <v>546.7341079359765</v>
+        <v>267.7881344992537</v>
       </c>
       <c r="G2" t="n">
-        <v>267.7881344992538</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="H2" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="I2" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="J2" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618846</v>
       </c>
       <c r="K2" t="n">
         <v>142.8373253438683</v>
@@ -4340,10 +4340,10 @@
         <v>586.3582880173956</v>
       </c>
       <c r="N2" t="n">
-        <v>817.0829279823541</v>
+        <v>817.0829279823542</v>
       </c>
       <c r="O2" t="n">
-        <v>989.7620250901062</v>
+        <v>989.7620250901066</v>
       </c>
       <c r="P2" t="n">
         <v>1099.465256491931</v>
@@ -4364,16 +4364,16 @@
         <v>1104.626054809422</v>
       </c>
       <c r="V2" t="n">
-        <v>1104.626054809422</v>
+        <v>825.6800813726992</v>
       </c>
       <c r="W2" t="n">
-        <v>1104.626054809422</v>
+        <v>546.7341079359765</v>
       </c>
       <c r="X2" t="n">
-        <v>1104.626054809422</v>
+        <v>267.7881344992537</v>
       </c>
       <c r="Y2" t="n">
-        <v>1104.626054809422</v>
+        <v>267.7881344992537</v>
       </c>
     </row>
     <row r="3">
@@ -4383,31 +4383,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>160.7472568676422</v>
+        <v>403.9865097894775</v>
       </c>
       <c r="C3" t="n">
-        <v>160.7472568676422</v>
+        <v>403.9865097894775</v>
       </c>
       <c r="D3" t="n">
-        <v>160.7472568676422</v>
+        <v>403.9865097894775</v>
       </c>
       <c r="E3" t="n">
-        <v>160.7472568676422</v>
+        <v>244.749054784022</v>
       </c>
       <c r="F3" t="n">
-        <v>160.7472568676422</v>
+        <v>244.749054784022</v>
       </c>
       <c r="G3" t="n">
-        <v>22.09252109618843</v>
+        <v>222.40666688016</v>
       </c>
       <c r="H3" t="n">
-        <v>22.09252109618843</v>
+        <v>109.772397078701</v>
       </c>
       <c r="I3" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="J3" t="n">
-        <v>28.39914141318534</v>
+        <v>28.39914141318535</v>
       </c>
       <c r="K3" t="n">
         <v>165.799003153448</v>
@@ -4416,13 +4416,13 @@
         <v>411.954469746149</v>
       </c>
       <c r="M3" t="n">
-        <v>411.954469746149</v>
+        <v>562.3310704112777</v>
       </c>
       <c r="N3" t="n">
-        <v>685.3494183114808</v>
+        <v>562.3310704112777</v>
       </c>
       <c r="O3" t="n">
-        <v>951.8462318947645</v>
+        <v>828.8278839945615</v>
       </c>
       <c r="P3" t="n">
         <v>1025.71200399185</v>
@@ -4431,28 +4431,28 @@
         <v>1104.626054809422</v>
       </c>
       <c r="R3" t="n">
-        <v>1104.626054809422</v>
+        <v>1008.180757940352</v>
       </c>
       <c r="S3" t="n">
-        <v>932.6220420606003</v>
+        <v>1008.180757940352</v>
       </c>
       <c r="T3" t="n">
-        <v>932.6220420606003</v>
+        <v>1008.180757940352</v>
       </c>
       <c r="U3" t="n">
-        <v>704.403429694748</v>
+        <v>779.9621455744993</v>
       </c>
       <c r="V3" t="n">
-        <v>622.8361138013768</v>
+        <v>779.9621455744993</v>
       </c>
       <c r="W3" t="n">
-        <v>368.5987570731751</v>
+        <v>779.9621455744993</v>
       </c>
       <c r="X3" t="n">
-        <v>160.7472568676422</v>
+        <v>779.9621455744993</v>
       </c>
       <c r="Y3" t="n">
-        <v>160.7472568676422</v>
+        <v>572.2018468095455</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>191.7165880308942</v>
+        <v>927.7258589024746</v>
       </c>
       <c r="C4" t="n">
-        <v>191.7165880308942</v>
+        <v>927.7258589024746</v>
       </c>
       <c r="D4" t="n">
-        <v>191.7165880308942</v>
+        <v>927.7258589024746</v>
       </c>
       <c r="E4" t="n">
-        <v>191.7165880308942</v>
+        <v>927.7258589024746</v>
       </c>
       <c r="F4" t="n">
-        <v>191.7165880308942</v>
+        <v>927.7258589024746</v>
       </c>
       <c r="G4" t="n">
-        <v>22.09252109618843</v>
+        <v>927.7258589024746</v>
       </c>
       <c r="H4" t="n">
-        <v>22.09252109618843</v>
+        <v>927.7258589024746</v>
       </c>
       <c r="I4" t="n">
-        <v>22.09252109618843</v>
+        <v>927.7258589024746</v>
       </c>
       <c r="J4" t="n">
-        <v>22.09252109618843</v>
+        <v>927.7258589024746</v>
       </c>
       <c r="K4" t="n">
-        <v>22.09252109618843</v>
+        <v>927.7258589024746</v>
       </c>
       <c r="L4" t="n">
-        <v>58.70189726492713</v>
+        <v>964.3352350712132</v>
       </c>
       <c r="M4" t="n">
-        <v>107.6904745160686</v>
+        <v>1013.323812322355</v>
       </c>
       <c r="N4" t="n">
-        <v>160.9488293168851</v>
+        <v>1066.582167123171</v>
       </c>
       <c r="O4" t="n">
-        <v>194.1252445754622</v>
+        <v>1099.758582381748</v>
       </c>
       <c r="P4" t="n">
-        <v>198.9927170031358</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="Q4" t="n">
-        <v>198.9927170031358</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="R4" t="n">
-        <v>191.7165880308942</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="S4" t="n">
-        <v>191.7165880308942</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="T4" t="n">
-        <v>191.7165880308942</v>
+        <v>927.7258589024746</v>
       </c>
       <c r="U4" t="n">
-        <v>191.7165880308942</v>
+        <v>927.7258589024746</v>
       </c>
       <c r="V4" t="n">
-        <v>191.7165880308942</v>
+        <v>927.7258589024746</v>
       </c>
       <c r="W4" t="n">
-        <v>191.7165880308942</v>
+        <v>927.7258589024746</v>
       </c>
       <c r="X4" t="n">
-        <v>191.7165880308942</v>
+        <v>927.7258589024746</v>
       </c>
       <c r="Y4" t="n">
-        <v>191.7165880308942</v>
+        <v>927.7258589024746</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>336.8860790163629</v>
+        <v>1140.351815451565</v>
       </c>
       <c r="C5" t="n">
-        <v>53.97957522603224</v>
+        <v>771.3892985111534</v>
       </c>
       <c r="D5" t="n">
-        <v>53.97957522603224</v>
+        <v>413.1235999044029</v>
       </c>
       <c r="E5" t="n">
-        <v>53.97957522603224</v>
+        <v>413.1235999044029</v>
       </c>
       <c r="F5" t="n">
-        <v>47.03407447682876</v>
+        <v>383.9769475906403</v>
       </c>
       <c r="G5" t="n">
-        <v>32.15881852724054</v>
+        <v>369.1016916410521</v>
       </c>
       <c r="H5" t="n">
-        <v>32.15881852724054</v>
+        <v>32.15881852724037</v>
       </c>
       <c r="I5" t="n">
-        <v>32.15881852724054</v>
+        <v>32.15881852724037</v>
       </c>
       <c r="J5" t="n">
-        <v>68.74710162581414</v>
+        <v>68.74710162581334</v>
       </c>
       <c r="K5" t="n">
-        <v>244.3282577043037</v>
+        <v>244.328257704302</v>
       </c>
       <c r="L5" t="n">
-        <v>514.4288353097625</v>
+        <v>514.4288353097596</v>
       </c>
       <c r="M5" t="n">
-        <v>831.5743161784826</v>
+        <v>831.5743161784786</v>
       </c>
       <c r="N5" t="n">
-        <v>1139.219544947238</v>
+        <v>1139.219544947232</v>
       </c>
       <c r="O5" t="n">
-        <v>1384.532572851317</v>
+        <v>1384.532572851311</v>
       </c>
       <c r="P5" t="n">
-        <v>1556.227183742428</v>
+        <v>1556.22718374242</v>
       </c>
       <c r="Q5" t="n">
-        <v>1607.940926362027</v>
+        <v>1607.940926362019</v>
       </c>
       <c r="R5" t="n">
-        <v>1493.120470721688</v>
+        <v>1493.120470721679</v>
       </c>
       <c r="S5" t="n">
-        <v>1295.252658133976</v>
+        <v>1493.120470721679</v>
       </c>
       <c r="T5" t="n">
-        <v>1295.252658133976</v>
+        <v>1493.120470721679</v>
       </c>
       <c r="U5" t="n">
-        <v>1041.414724621013</v>
+        <v>1493.120470721679</v>
       </c>
       <c r="V5" t="n">
-        <v>710.3518372774428</v>
+        <v>1493.120470721679</v>
       </c>
       <c r="W5" t="n">
-        <v>710.3518372774428</v>
+        <v>1140.351815451565</v>
       </c>
       <c r="X5" t="n">
-        <v>336.8860790163629</v>
+        <v>1140.351815451565</v>
       </c>
       <c r="Y5" t="n">
-        <v>336.8860790163629</v>
+        <v>1140.351815451565</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>702.3225323789665</v>
+        <v>661.3182704481892</v>
       </c>
       <c r="C6" t="n">
-        <v>527.8695030978395</v>
+        <v>486.8652411670622</v>
       </c>
       <c r="D6" t="n">
-        <v>527.8695030978395</v>
+        <v>337.9308315058109</v>
       </c>
       <c r="E6" t="n">
-        <v>368.632048092384</v>
+        <v>178.6933765003554</v>
       </c>
       <c r="F6" t="n">
-        <v>222.097490119269</v>
+        <v>32.15881852724037</v>
       </c>
       <c r="G6" t="n">
-        <v>222.097490119269</v>
+        <v>32.15881852724037</v>
       </c>
       <c r="H6" t="n">
-        <v>111.7360808600561</v>
+        <v>32.15881852724037</v>
       </c>
       <c r="I6" t="n">
-        <v>32.15881852724054</v>
+        <v>32.15881852724037</v>
       </c>
       <c r="J6" t="n">
-        <v>32.15881852724054</v>
+        <v>60.2571696029149</v>
       </c>
       <c r="K6" t="n">
-        <v>206.8042190698915</v>
+        <v>234.9025701455653</v>
       </c>
       <c r="L6" t="n">
-        <v>206.8042190698915</v>
+        <v>531.1392600430495</v>
       </c>
       <c r="M6" t="n">
-        <v>604.4776852385828</v>
+        <v>928.8127262117399</v>
       </c>
       <c r="N6" t="n">
-        <v>1002.443064513184</v>
+        <v>1286.565694020739</v>
       </c>
       <c r="O6" t="n">
-        <v>1323.818296854465</v>
+        <v>1607.940926362019</v>
       </c>
       <c r="P6" t="n">
-        <v>1499.584113741356</v>
+        <v>1607.940926362019</v>
       </c>
       <c r="Q6" t="n">
-        <v>1607.940926362027</v>
+        <v>1607.940926362019</v>
       </c>
       <c r="R6" t="n">
-        <v>1607.940926362027</v>
+        <v>1607.940926362019</v>
       </c>
       <c r="S6" t="n">
-        <v>1607.940926362027</v>
+        <v>1607.940926362019</v>
       </c>
       <c r="T6" t="n">
-        <v>1407.009599886196</v>
+        <v>1499.382763166946</v>
       </c>
       <c r="U6" t="n">
-        <v>1332.53552489219</v>
+        <v>1499.382763166946</v>
       </c>
       <c r="V6" t="n">
-        <v>1332.53552489219</v>
+        <v>1499.382763166946</v>
       </c>
       <c r="W6" t="n">
-        <v>1078.298168163988</v>
+        <v>1245.145406438744</v>
       </c>
       <c r="X6" t="n">
-        <v>1078.298168163988</v>
+        <v>1037.293906233211</v>
       </c>
       <c r="Y6" t="n">
-        <v>870.5378693990344</v>
+        <v>829.5336074682573</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>66.91785632569554</v>
+        <v>32.15881852724037</v>
       </c>
       <c r="C7" t="n">
-        <v>66.91785632569554</v>
+        <v>32.15881852724037</v>
       </c>
       <c r="D7" t="n">
-        <v>66.91785632569554</v>
+        <v>32.15881852724037</v>
       </c>
       <c r="E7" t="n">
-        <v>66.91785632569554</v>
+        <v>32.15881852724037</v>
       </c>
       <c r="F7" t="n">
-        <v>66.91785632569554</v>
+        <v>32.15881852724037</v>
       </c>
       <c r="G7" t="n">
-        <v>66.91785632569554</v>
+        <v>32.15881852724037</v>
       </c>
       <c r="H7" t="n">
-        <v>66.91785632569554</v>
+        <v>32.15881852724037</v>
       </c>
       <c r="I7" t="n">
-        <v>32.15881852724054</v>
+        <v>32.15881852724037</v>
       </c>
       <c r="J7" t="n">
-        <v>32.15881852724054</v>
+        <v>32.15881852724037</v>
       </c>
       <c r="K7" t="n">
-        <v>39.8422521519157</v>
+        <v>39.84225215191518</v>
       </c>
       <c r="L7" t="n">
-        <v>105.200836480851</v>
+        <v>105.20083648085</v>
       </c>
       <c r="M7" t="n">
-        <v>184.5014228004937</v>
+        <v>184.5014228004923</v>
       </c>
       <c r="N7" t="n">
-        <v>267.351034844834</v>
+        <v>267.351034844832</v>
       </c>
       <c r="O7" t="n">
-        <v>327.859765651579</v>
+        <v>327.8597656515766</v>
       </c>
       <c r="P7" t="n">
-        <v>356.1147558341294</v>
+        <v>356.1147558341266</v>
       </c>
       <c r="Q7" t="n">
-        <v>356.1147558341294</v>
+        <v>356.1147558341266</v>
       </c>
       <c r="R7" t="n">
-        <v>356.1147558341294</v>
+        <v>356.1147558341266</v>
       </c>
       <c r="S7" t="n">
-        <v>356.1147558341294</v>
+        <v>356.1147558341266</v>
       </c>
       <c r="T7" t="n">
-        <v>356.1147558341294</v>
+        <v>356.1147558341266</v>
       </c>
       <c r="U7" t="n">
-        <v>66.91785632569554</v>
+        <v>356.1147558341266</v>
       </c>
       <c r="V7" t="n">
-        <v>66.91785632569554</v>
+        <v>101.4302676282397</v>
       </c>
       <c r="W7" t="n">
-        <v>66.91785632569554</v>
+        <v>32.15881852724037</v>
       </c>
       <c r="X7" t="n">
-        <v>66.91785632569554</v>
+        <v>32.15881852724037</v>
       </c>
       <c r="Y7" t="n">
-        <v>66.91785632569554</v>
+        <v>32.15881852724037</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1271.984870679801</v>
+        <v>1637.643464250441</v>
       </c>
       <c r="C8" t="n">
-        <v>903.0223537393897</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D8" t="n">
-        <v>903.0223537393897</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E8" t="n">
-        <v>517.2341011411454</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F8" t="n">
-        <v>106.2481963515378</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G8" t="n">
         <v>53.94298182036445</v>
@@ -4802,13 +4802,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4829,25 +4829,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U8" t="n">
-        <v>2388.358616186807</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V8" t="n">
-        <v>2388.358616186807</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="W8" t="n">
-        <v>2035.589960916693</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="X8" t="n">
-        <v>1662.124202655613</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="Y8" t="n">
-        <v>1271.984870679801</v>
+        <v>1916.245359491378</v>
       </c>
     </row>
     <row r="9">
@@ -4857,22 +4857,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
@@ -4881,22 +4881,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
         <v>2525.076107152626</v>
@@ -4920,10 +4920,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>398.3338608103785</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="C10" t="n">
-        <v>398.3338608103785</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="D10" t="n">
-        <v>398.3338608103785</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E10" t="n">
-        <v>250.4207672279854</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
         <v>53.94298182036445</v>
@@ -4981,31 +4981,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>719.2627963377356</v>
       </c>
       <c r="R10" t="n">
-        <v>579.9823256406182</v>
+        <v>719.2627963377356</v>
       </c>
       <c r="S10" t="n">
-        <v>579.9823256406182</v>
+        <v>719.2627963377356</v>
       </c>
       <c r="T10" t="n">
-        <v>579.9823256406182</v>
+        <v>719.2627963377356</v>
       </c>
       <c r="U10" t="n">
-        <v>579.9823256406182</v>
+        <v>719.2627963377356</v>
       </c>
       <c r="V10" t="n">
-        <v>579.9823256406182</v>
+        <v>719.2627963377356</v>
       </c>
       <c r="W10" t="n">
-        <v>579.9823256406182</v>
+        <v>429.8456263007749</v>
       </c>
       <c r="X10" t="n">
-        <v>579.9823256406182</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="Y10" t="n">
-        <v>579.9823256406182</v>
+        <v>201.8560754027576</v>
       </c>
     </row>
     <row r="11">
@@ -5015,7 +5015,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2314.081404709477</v>
+        <v>2373.013657650562</v>
       </c>
       <c r="C11" t="n">
         <v>2004.05114071015</v>
@@ -5039,22 +5039,22 @@
         <v>94.35833540878045</v>
       </c>
       <c r="J11" t="n">
-        <v>283.2374663678058</v>
+        <v>450.6431153881589</v>
       </c>
       <c r="K11" t="n">
-        <v>937.9607985031053</v>
+        <v>784.4624890780053</v>
       </c>
       <c r="L11" t="n">
-        <v>1388.995011751514</v>
+        <v>1235.496702326414</v>
       </c>
       <c r="M11" t="n">
-        <v>1939.28241514605</v>
+        <v>2214.047005156242</v>
       </c>
       <c r="N11" t="n">
-        <v>2919.034687372696</v>
+        <v>3193.799277382889</v>
       </c>
       <c r="O11" t="n">
-        <v>3422.007158252033</v>
+        <v>3696.771748262226</v>
       </c>
       <c r="P11" t="n">
         <v>4135.362245698979</v>
@@ -5075,16 +5075,16 @@
         <v>4148.117877624176</v>
       </c>
       <c r="V11" t="n">
-        <v>3817.054990280605</v>
+        <v>3875.98724322169</v>
       </c>
       <c r="W11" t="n">
-        <v>3464.286335010491</v>
+        <v>3523.218587951576</v>
       </c>
       <c r="X11" t="n">
-        <v>3090.820576749411</v>
+        <v>3149.752829690496</v>
       </c>
       <c r="Y11" t="n">
-        <v>2700.681244773599</v>
+        <v>2759.613497714684</v>
       </c>
     </row>
     <row r="12">
@@ -5109,22 +5109,22 @@
         <v>340.2306215367564</v>
       </c>
       <c r="G12" t="n">
-        <v>203.867521369375</v>
+        <v>203.8675213693749</v>
       </c>
       <c r="H12" t="n">
-        <v>113.3656270072425</v>
+        <v>113.3656270072424</v>
       </c>
       <c r="I12" t="n">
         <v>94.35833540878045</v>
       </c>
       <c r="J12" t="n">
-        <v>188.0356048993976</v>
+        <v>188.0356048993977</v>
       </c>
       <c r="K12" t="n">
-        <v>426.2998038797447</v>
+        <v>426.2998038797448</v>
       </c>
       <c r="L12" t="n">
-        <v>792.99796419241</v>
+        <v>792.9979641924101</v>
       </c>
       <c r="M12" t="n">
         <v>1240.274289414726</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>950.5237164904977</v>
+        <v>262.0611720340615</v>
       </c>
       <c r="C13" t="n">
-        <v>950.5237164904977</v>
+        <v>262.0611720340615</v>
       </c>
       <c r="D13" t="n">
-        <v>800.4070770781619</v>
+        <v>262.0611720340615</v>
       </c>
       <c r="E13" t="n">
-        <v>652.4939834957688</v>
+        <v>262.0611720340615</v>
       </c>
       <c r="F13" t="n">
-        <v>505.6040359978584</v>
+        <v>262.0611720340615</v>
       </c>
       <c r="G13" t="n">
-        <v>337.9011993725774</v>
+        <v>94.35833540878045</v>
       </c>
       <c r="H13" t="n">
-        <v>191.6840125904351</v>
+        <v>94.35833540878045</v>
       </c>
       <c r="I13" t="n">
         <v>94.35833540878045</v>
@@ -5224,25 +5224,25 @@
         <v>1955.140767065089</v>
       </c>
       <c r="S13" t="n">
-        <v>1955.140767065089</v>
+        <v>1947.462907453526</v>
       </c>
       <c r="T13" t="n">
-        <v>1955.140767065089</v>
+        <v>1725.696292023053</v>
       </c>
       <c r="U13" t="n">
-        <v>1666.037900190733</v>
+        <v>1436.593425148696</v>
       </c>
       <c r="V13" t="n">
-        <v>1411.353411984846</v>
+        <v>1181.908936942809</v>
       </c>
       <c r="W13" t="n">
-        <v>1171.316295634028</v>
+        <v>892.4917669058486</v>
       </c>
       <c r="X13" t="n">
-        <v>1171.316295634028</v>
+        <v>664.5022160078313</v>
       </c>
       <c r="Y13" t="n">
-        <v>950.5237164904977</v>
+        <v>443.7096368643012</v>
       </c>
     </row>
     <row r="14">
@@ -5291,10 +5291,10 @@
         <v>2858.555174343772</v>
       </c>
       <c r="O14" t="n">
-        <v>3714.904916242246</v>
+        <v>3487.851425687304</v>
       </c>
       <c r="P14" t="n">
-        <v>4217.493706621662</v>
+        <v>4007.301865868355</v>
       </c>
       <c r="Q14" t="n">
         <v>4546.744210776185</v>
@@ -5364,19 +5364,19 @@
         <v>982.7751163614419</v>
       </c>
       <c r="M15" t="n">
-        <v>1531.693580971731</v>
+        <v>982.7751163614419</v>
       </c>
       <c r="N15" t="n">
-        <v>2109.548928898133</v>
+        <v>1560.630464287844</v>
       </c>
       <c r="O15" t="n">
-        <v>2356.174174746173</v>
+        <v>1944.307641163497</v>
       </c>
       <c r="P15" t="n">
-        <v>2356.174174746173</v>
+        <v>2331.409196715653</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.022116757453</v>
+        <v>2540.257138726933</v>
       </c>
       <c r="R15" t="n">
         <v>2565.022116757453</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>599.2065558310098</v>
+        <v>855.2567122313802</v>
       </c>
       <c r="C16" t="n">
-        <v>430.270372903103</v>
+        <v>686.3205293034733</v>
       </c>
       <c r="D16" t="n">
-        <v>430.270372903103</v>
+        <v>536.2038898911376</v>
       </c>
       <c r="E16" t="n">
-        <v>430.270372903103</v>
+        <v>491.8909640416085</v>
       </c>
       <c r="F16" t="n">
-        <v>283.3804254051926</v>
+        <v>491.8909640416085</v>
       </c>
       <c r="G16" t="n">
-        <v>116.0207275231298</v>
+        <v>324.5312661595458</v>
       </c>
       <c r="H16" t="n">
-        <v>116.0207275231298</v>
+        <v>181.364894748926</v>
       </c>
       <c r="I16" t="n">
         <v>94.35833540878045</v>
@@ -5458,28 +5458,28 @@
         <v>2288.546551401335</v>
       </c>
       <c r="R16" t="n">
-        <v>2214.144859831204</v>
+        <v>2288.546551401335</v>
       </c>
       <c r="S16" t="n">
-        <v>2028.438948119389</v>
+        <v>2102.84063968952</v>
       </c>
       <c r="T16" t="n">
-        <v>1808.138470955393</v>
+        <v>1882.540162525524</v>
       </c>
       <c r="U16" t="n">
-        <v>1519.054320739758</v>
+        <v>1593.456012309888</v>
       </c>
       <c r="V16" t="n">
-        <v>1519.054320739758</v>
+        <v>1593.456012309888</v>
       </c>
       <c r="W16" t="n">
-        <v>1229.637150702797</v>
+        <v>1304.038842272928</v>
       </c>
       <c r="X16" t="n">
-        <v>1001.64759980478</v>
+        <v>1076.04929137491</v>
       </c>
       <c r="Y16" t="n">
-        <v>780.8550206612496</v>
+        <v>855.2567122313802</v>
       </c>
     </row>
     <row r="17">
@@ -5492,16 +5492,16 @@
         <v>2334.922984192268</v>
       </c>
       <c r="C17" t="n">
-        <v>1965.960467251856</v>
+        <v>1965.960467251857</v>
       </c>
       <c r="D17" t="n">
         <v>1607.694768645106</v>
       </c>
       <c r="E17" t="n">
-        <v>1221.906516046861</v>
+        <v>1221.906516046862</v>
       </c>
       <c r="F17" t="n">
-        <v>810.9206112572538</v>
+        <v>810.9206112572547</v>
       </c>
       <c r="G17" t="n">
         <v>396.6131300684015</v>
@@ -5513,28 +5513,28 @@
         <v>94.35833540878045</v>
       </c>
       <c r="J17" t="n">
-        <v>346.8712280413478</v>
+        <v>514.2768770617008</v>
       </c>
       <c r="K17" t="n">
-        <v>776.061115128809</v>
+        <v>960.3284139507973</v>
       </c>
       <c r="L17" t="n">
-        <v>1345.410883484627</v>
+        <v>1529.678182306615</v>
       </c>
       <c r="M17" t="n">
-        <v>2010.591640180402</v>
+        <v>2194.858939002391</v>
       </c>
       <c r="N17" t="n">
-        <v>3124.122980491283</v>
+        <v>2875.416824145407</v>
       </c>
       <c r="O17" t="n">
-        <v>3779.964171916499</v>
+        <v>3504.713075488939</v>
       </c>
       <c r="P17" t="n">
-        <v>4282.552962295915</v>
+        <v>4007.301865868355</v>
       </c>
       <c r="Q17" t="n">
-        <v>4611.803466450438</v>
+        <v>4546.744210776185</v>
       </c>
       <c r="R17" t="n">
         <v>4717.916770439022</v>
@@ -5601,10 +5601,10 @@
         <v>982.7751163614419</v>
       </c>
       <c r="M18" t="n">
-        <v>1391.217271267615</v>
+        <v>982.7751163614419</v>
       </c>
       <c r="N18" t="n">
-        <v>1969.072619194017</v>
+        <v>1462.667664245767</v>
       </c>
       <c r="O18" t="n">
         <v>1969.072619194017</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>703.4674766575533</v>
+        <v>633.9392376620835</v>
       </c>
       <c r="C19" t="n">
-        <v>534.5312937296464</v>
+        <v>491.8909640416085</v>
       </c>
       <c r="D19" t="n">
-        <v>384.4146543173107</v>
+        <v>491.8909640416085</v>
       </c>
       <c r="E19" t="n">
-        <v>384.4146543173107</v>
+        <v>491.8909640416085</v>
       </c>
       <c r="F19" t="n">
-        <v>237.5247068194003</v>
+        <v>491.8909640416085</v>
       </c>
       <c r="G19" t="n">
-        <v>237.5247068194003</v>
+        <v>324.5312661595458</v>
       </c>
       <c r="H19" t="n">
-        <v>94.35833540878045</v>
+        <v>181.364894748926</v>
       </c>
       <c r="I19" t="n">
         <v>94.35833540878045</v>
@@ -5698,25 +5698,25 @@
         <v>2214.144859831204</v>
       </c>
       <c r="S19" t="n">
-        <v>2214.144859831204</v>
+        <v>2028.438948119389</v>
       </c>
       <c r="T19" t="n">
-        <v>2167.083879987824</v>
+        <v>1808.138470955393</v>
       </c>
       <c r="U19" t="n">
-        <v>1877.999729772188</v>
+        <v>1519.054320739758</v>
       </c>
       <c r="V19" t="n">
-        <v>1623.315241566301</v>
+        <v>1264.369832533871</v>
       </c>
       <c r="W19" t="n">
-        <v>1333.898071529341</v>
+        <v>1264.369832533871</v>
       </c>
       <c r="X19" t="n">
-        <v>1105.908520631323</v>
+        <v>1036.380281635853</v>
       </c>
       <c r="Y19" t="n">
-        <v>885.1159414877931</v>
+        <v>815.5877024923233</v>
       </c>
     </row>
     <row r="20">
@@ -5738,7 +5738,7 @@
         <v>1221.906516046861</v>
       </c>
       <c r="F20" t="n">
-        <v>810.920611257254</v>
+        <v>810.9206112572538</v>
       </c>
       <c r="G20" t="n">
         <v>396.6131300684015</v>
@@ -5750,28 +5750,28 @@
         <v>94.35833540878045</v>
       </c>
       <c r="J20" t="n">
-        <v>346.8712280413478</v>
+        <v>514.2768770617008</v>
       </c>
       <c r="K20" t="n">
-        <v>776.061115128809</v>
+        <v>943.466764149162</v>
       </c>
       <c r="L20" t="n">
-        <v>1345.410883484627</v>
+        <v>1512.81653250498</v>
       </c>
       <c r="M20" t="n">
-        <v>2010.591640180402</v>
+        <v>2177.997289200755</v>
       </c>
       <c r="N20" t="n">
-        <v>2691.149525323419</v>
+        <v>2858.555174343772</v>
       </c>
       <c r="O20" t="n">
-        <v>3697.437956117069</v>
+        <v>3487.851425687304</v>
       </c>
       <c r="P20" t="n">
-        <v>4200.026746496485</v>
+        <v>4007.301865868355</v>
       </c>
       <c r="Q20" t="n">
-        <v>4611.803466450438</v>
+        <v>4546.744210776185</v>
       </c>
       <c r="R20" t="n">
         <v>4717.916770439022</v>
@@ -5829,28 +5829,28 @@
         <v>94.35833540878045</v>
       </c>
       <c r="J21" t="n">
-        <v>94.35833540878045</v>
+        <v>225.9354374172501</v>
       </c>
       <c r="K21" t="n">
-        <v>397.3993847586448</v>
+        <v>528.9764867671145</v>
       </c>
       <c r="L21" t="n">
-        <v>851.1980143529722</v>
+        <v>982.7751163614419</v>
       </c>
       <c r="M21" t="n">
-        <v>860.047338288845</v>
+        <v>982.7751163614419</v>
       </c>
       <c r="N21" t="n">
-        <v>1437.902686215247</v>
+        <v>1462.667664245767</v>
       </c>
       <c r="O21" t="n">
-        <v>1944.307641163497</v>
+        <v>1969.072619194017</v>
       </c>
       <c r="P21" t="n">
-        <v>2331.409196715653</v>
+        <v>2356.174174746173</v>
       </c>
       <c r="Q21" t="n">
-        <v>2540.257138726933</v>
+        <v>2565.022116757453</v>
       </c>
       <c r="R21" t="n">
         <v>2565.022116757453</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>645.1041187571363</v>
+        <v>344.5220676251229</v>
       </c>
       <c r="C22" t="n">
-        <v>476.1679358292295</v>
+        <v>175.585884697216</v>
       </c>
       <c r="D22" t="n">
-        <v>476.1679358292295</v>
+        <v>175.585884697216</v>
       </c>
       <c r="E22" t="n">
-        <v>328.2548422468363</v>
+        <v>175.585884697216</v>
       </c>
       <c r="F22" t="n">
-        <v>181.364894748926</v>
+        <v>175.585884697216</v>
       </c>
       <c r="G22" t="n">
-        <v>181.364894748926</v>
+        <v>94.35833540878045</v>
       </c>
       <c r="H22" t="n">
-        <v>181.364894748926</v>
+        <v>94.35833540878045</v>
       </c>
       <c r="I22" t="n">
         <v>94.35833540878045</v>
@@ -5932,28 +5932,28 @@
         <v>2288.546551401335</v>
       </c>
       <c r="R22" t="n">
-        <v>2288.546551401335</v>
+        <v>2214.144859831204</v>
       </c>
       <c r="S22" t="n">
-        <v>2102.84063968952</v>
+        <v>2028.438948119389</v>
       </c>
       <c r="T22" t="n">
-        <v>2102.84063968952</v>
+        <v>1808.138470955393</v>
       </c>
       <c r="U22" t="n">
-        <v>1813.756489473884</v>
+        <v>1519.054320739758</v>
       </c>
       <c r="V22" t="n">
-        <v>1559.072001267997</v>
+        <v>1264.369832533871</v>
       </c>
       <c r="W22" t="n">
-        <v>1269.654831231037</v>
+        <v>974.9526624969101</v>
       </c>
       <c r="X22" t="n">
-        <v>1047.545162730906</v>
+        <v>746.9631115988927</v>
       </c>
       <c r="Y22" t="n">
-        <v>826.7525835873761</v>
+        <v>526.1705324553626</v>
       </c>
     </row>
     <row r="23">
@@ -5963,22 +5963,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2334.922984192267</v>
+        <v>2334.922984192268</v>
       </c>
       <c r="C23" t="n">
-        <v>1965.960467251855</v>
+        <v>1965.960467251856</v>
       </c>
       <c r="D23" t="n">
-        <v>1607.694768645105</v>
+        <v>1607.694768645106</v>
       </c>
       <c r="E23" t="n">
         <v>1221.906516046861</v>
       </c>
       <c r="F23" t="n">
-        <v>810.9206112572533</v>
+        <v>810.9206112572538</v>
       </c>
       <c r="G23" t="n">
-        <v>396.6131300684011</v>
+        <v>396.6131300684015</v>
       </c>
       <c r="H23" t="n">
         <v>106.8637681017653</v>
@@ -5990,25 +5990,25 @@
         <v>346.8712280413478</v>
       </c>
       <c r="K23" t="n">
-        <v>776.061115128809</v>
+        <v>960.3284139507973</v>
       </c>
       <c r="L23" t="n">
-        <v>1345.410883484627</v>
+        <v>1529.678182306615</v>
       </c>
       <c r="M23" t="n">
-        <v>2010.591640180402</v>
+        <v>2194.858939002391</v>
       </c>
       <c r="N23" t="n">
-        <v>3124.122980491283</v>
+        <v>2875.416824145407</v>
       </c>
       <c r="O23" t="n">
-        <v>3753.419231834815</v>
+        <v>3504.713075488939</v>
       </c>
       <c r="P23" t="n">
-        <v>4282.552962295915</v>
+        <v>4007.301865868355</v>
       </c>
       <c r="Q23" t="n">
-        <v>4611.803466450438</v>
+        <v>4546.744210776185</v>
       </c>
       <c r="R23" t="n">
         <v>4717.916770439022</v>
@@ -6020,19 +6020,19 @@
         <v>4422.428736315838</v>
       </c>
       <c r="U23" t="n">
-        <v>4168.959457106966</v>
+        <v>4168.959457106967</v>
       </c>
       <c r="V23" t="n">
-        <v>3837.896569763395</v>
+        <v>3837.896569763396</v>
       </c>
       <c r="W23" t="n">
         <v>3485.127914493281</v>
       </c>
       <c r="X23" t="n">
-        <v>3111.662156232201</v>
+        <v>3111.662156232202</v>
       </c>
       <c r="Y23" t="n">
-        <v>2721.522824256389</v>
+        <v>2721.52282425639</v>
       </c>
     </row>
     <row r="24">
@@ -6069,25 +6069,25 @@
         <v>225.9354374172501</v>
       </c>
       <c r="K24" t="n">
-        <v>406.2487086945176</v>
+        <v>528.9764867671145</v>
       </c>
       <c r="L24" t="n">
-        <v>860.047338288845</v>
+        <v>982.7751163614419</v>
       </c>
       <c r="M24" t="n">
-        <v>860.047338288845</v>
+        <v>982.7751163614419</v>
       </c>
       <c r="N24" t="n">
-        <v>1437.902686215247</v>
+        <v>1462.667664245767</v>
       </c>
       <c r="O24" t="n">
-        <v>1944.307641163497</v>
+        <v>1969.072619194017</v>
       </c>
       <c r="P24" t="n">
-        <v>2331.409196715653</v>
+        <v>2356.174174746173</v>
       </c>
       <c r="Q24" t="n">
-        <v>2540.257138726933</v>
+        <v>2565.022116757453</v>
       </c>
       <c r="R24" t="n">
         <v>2565.022116757453</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>561.3242513314162</v>
+        <v>344.5220676251229</v>
       </c>
       <c r="C25" t="n">
-        <v>392.3880684035093</v>
+        <v>344.5220676251229</v>
       </c>
       <c r="D25" t="n">
-        <v>242.2714289911736</v>
+        <v>344.5220676251229</v>
       </c>
       <c r="E25" t="n">
-        <v>94.35833540878045</v>
+        <v>344.5220676251229</v>
       </c>
       <c r="F25" t="n">
-        <v>94.35833540878045</v>
+        <v>344.5220676251229</v>
       </c>
       <c r="G25" t="n">
-        <v>94.35833540878045</v>
+        <v>177.1623697430601</v>
       </c>
       <c r="H25" t="n">
         <v>94.35833540878045</v>
@@ -6169,28 +6169,28 @@
         <v>2288.546551401335</v>
       </c>
       <c r="R25" t="n">
-        <v>2288.546551401335</v>
+        <v>2214.144859831204</v>
       </c>
       <c r="S25" t="n">
-        <v>2102.84063968952</v>
+        <v>2028.438948119389</v>
       </c>
       <c r="T25" t="n">
-        <v>1882.540162525524</v>
+        <v>1808.138470955393</v>
       </c>
       <c r="U25" t="n">
-        <v>1593.456012309888</v>
+        <v>1519.054320739758</v>
       </c>
       <c r="V25" t="n">
-        <v>1338.771524104001</v>
+        <v>1264.369832533871</v>
       </c>
       <c r="W25" t="n">
-        <v>1049.354354067041</v>
+        <v>974.9526624969101</v>
       </c>
       <c r="X25" t="n">
-        <v>821.3648031690234</v>
+        <v>746.9631115988927</v>
       </c>
       <c r="Y25" t="n">
-        <v>742.972716161656</v>
+        <v>526.1705324553626</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2334.922984192267</v>
+        <v>2334.922984192268</v>
       </c>
       <c r="C26" t="n">
         <v>1965.960467251856</v>
       </c>
       <c r="D26" t="n">
-        <v>1607.694768645105</v>
+        <v>1607.694768645106</v>
       </c>
       <c r="E26" t="n">
-        <v>1221.906516046861</v>
+        <v>1221.906516046862</v>
       </c>
       <c r="F26" t="n">
-        <v>810.9206112572533</v>
+        <v>810.9206112572547</v>
       </c>
       <c r="G26" t="n">
-        <v>396.613130068401</v>
+        <v>396.6131300684019</v>
       </c>
       <c r="H26" t="n">
-        <v>106.8637681017652</v>
+        <v>106.8637681017653</v>
       </c>
       <c r="I26" t="n">
-        <v>94.35833540878041</v>
+        <v>94.35833540878045</v>
       </c>
       <c r="J26" t="n">
         <v>346.8712280413478</v>
       </c>
       <c r="K26" t="n">
-        <v>802.6060552104909</v>
+        <v>776.061115128809</v>
       </c>
       <c r="L26" t="n">
-        <v>1371.955823566309</v>
+        <v>1345.410883484627</v>
       </c>
       <c r="M26" t="n">
-        <v>2037.136580262084</v>
+        <v>2037.136580262086</v>
       </c>
       <c r="N26" t="n">
-        <v>3150.667920572965</v>
+        <v>3150.667920572967</v>
       </c>
       <c r="O26" t="n">
-        <v>3779.964171916497</v>
+        <v>3779.964171916499</v>
       </c>
       <c r="P26" t="n">
-        <v>4282.552962295913</v>
+        <v>4282.552962295915</v>
       </c>
       <c r="Q26" t="n">
-        <v>4611.803466450437</v>
+        <v>4611.803466450438</v>
       </c>
       <c r="R26" t="n">
-        <v>4717.91677043902</v>
+        <v>4717.916770439022</v>
       </c>
       <c r="S26" t="n">
         <v>4625.057832282288</v>
       </c>
       <c r="T26" t="n">
-        <v>4422.428736315836</v>
+        <v>4422.428736315838</v>
       </c>
       <c r="U26" t="n">
-        <v>4168.959457106966</v>
+        <v>4168.959457106967</v>
       </c>
       <c r="V26" t="n">
-        <v>3837.896569763395</v>
+        <v>3837.896569763396</v>
       </c>
       <c r="W26" t="n">
         <v>3485.127914493281</v>
       </c>
       <c r="X26" t="n">
-        <v>3111.662156232201</v>
+        <v>3111.662156232202</v>
       </c>
       <c r="Y26" t="n">
-        <v>2721.522824256389</v>
+        <v>2721.52282425639</v>
       </c>
     </row>
     <row r="27">
@@ -6297,10 +6297,10 @@
         <v>185.8226612101445</v>
       </c>
       <c r="H27" t="n">
-        <v>99.27368985543598</v>
+        <v>99.273689855436</v>
       </c>
       <c r="I27" t="n">
-        <v>94.35833540878041</v>
+        <v>94.35833540878045</v>
       </c>
       <c r="J27" t="n">
         <v>225.9354374172501</v>
@@ -6312,16 +6312,16 @@
         <v>982.7751163614419</v>
       </c>
       <c r="M27" t="n">
-        <v>1531.693580971731</v>
+        <v>982.7751163614419</v>
       </c>
       <c r="N27" t="n">
-        <v>2109.548928898133</v>
+        <v>1462.667664245767</v>
       </c>
       <c r="O27" t="n">
-        <v>2177.920561205297</v>
+        <v>1969.072619194017</v>
       </c>
       <c r="P27" t="n">
-        <v>2565.022116757453</v>
+        <v>2356.174174746173</v>
       </c>
       <c r="Q27" t="n">
         <v>2565.022116757453</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>750.5284565009342</v>
+        <v>639.7163383387837</v>
       </c>
       <c r="C28" t="n">
-        <v>581.5922735730273</v>
+        <v>470.7801554108768</v>
       </c>
       <c r="D28" t="n">
-        <v>581.5922735730273</v>
+        <v>320.663515998541</v>
       </c>
       <c r="E28" t="n">
-        <v>433.6791799906342</v>
+        <v>241.2482829066908</v>
       </c>
       <c r="F28" t="n">
-        <v>348.7245926309887</v>
+        <v>94.35833540878045</v>
       </c>
       <c r="G28" t="n">
-        <v>181.3648947489259</v>
+        <v>94.35833540878045</v>
       </c>
       <c r="H28" t="n">
-        <v>181.3648947489259</v>
+        <v>94.35833540878045</v>
       </c>
       <c r="I28" t="n">
-        <v>94.35833540878041</v>
+        <v>94.35833540878045</v>
       </c>
       <c r="J28" t="n">
         <v>163.2581048092509</v>
@@ -6406,28 +6406,28 @@
         <v>2288.546551401335</v>
       </c>
       <c r="R28" t="n">
-        <v>2214.144859831204</v>
+        <v>2288.546551401335</v>
       </c>
       <c r="S28" t="n">
-        <v>2214.144859831204</v>
+        <v>2102.84063968952</v>
       </c>
       <c r="T28" t="n">
-        <v>2214.144859831204</v>
+        <v>1882.540162525524</v>
       </c>
       <c r="U28" t="n">
-        <v>1925.060709615569</v>
+        <v>1593.456012309888</v>
       </c>
       <c r="V28" t="n">
-        <v>1670.376221409682</v>
+        <v>1338.771524104001</v>
       </c>
       <c r="W28" t="n">
-        <v>1380.959051372721</v>
+        <v>1049.354354067041</v>
       </c>
       <c r="X28" t="n">
-        <v>1152.969500474704</v>
+        <v>821.3648031690234</v>
       </c>
       <c r="Y28" t="n">
-        <v>932.176921331174</v>
+        <v>821.3648031690234</v>
       </c>
     </row>
     <row r="29">
@@ -6449,7 +6449,7 @@
         <v>1221.906516046862</v>
       </c>
       <c r="F29" t="n">
-        <v>810.9206112572542</v>
+        <v>810.9206112572547</v>
       </c>
       <c r="G29" t="n">
         <v>396.6131300684015</v>
@@ -6464,31 +6464,31 @@
         <v>346.8712280413478</v>
       </c>
       <c r="K29" t="n">
-        <v>1096.965073574262</v>
+        <v>776.061115128809</v>
       </c>
       <c r="L29" t="n">
-        <v>1666.31484193008</v>
+        <v>1345.410883484627</v>
       </c>
       <c r="M29" t="n">
-        <v>2331.495598625856</v>
+        <v>2455.610038338306</v>
       </c>
       <c r="N29" t="n">
-        <v>3012.053483768872</v>
+        <v>3150.667920572967</v>
       </c>
       <c r="O29" t="n">
-        <v>3641.349735112404</v>
+        <v>3779.964171916499</v>
       </c>
       <c r="P29" t="n">
-        <v>4217.493706621662</v>
+        <v>4282.552962295915</v>
       </c>
       <c r="Q29" t="n">
-        <v>4546.744210776185</v>
+        <v>4611.803466450438</v>
       </c>
       <c r="R29" t="n">
         <v>4717.916770439022</v>
       </c>
       <c r="S29" t="n">
-        <v>4625.057832282288</v>
+        <v>4625.057832282289</v>
       </c>
       <c r="T29" t="n">
         <v>4422.428736315838</v>
@@ -6543,25 +6543,25 @@
         <v>225.9354374172501</v>
       </c>
       <c r="K30" t="n">
-        <v>225.9354374172501</v>
+        <v>528.9764867671145</v>
       </c>
       <c r="L30" t="n">
-        <v>679.7340670115775</v>
+        <v>982.7751163614419</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.652531621867</v>
+        <v>982.7751163614419</v>
       </c>
       <c r="N30" t="n">
-        <v>1806.507879548269</v>
+        <v>1462.667664245767</v>
       </c>
       <c r="O30" t="n">
-        <v>2312.912834496519</v>
+        <v>1969.072619194017</v>
       </c>
       <c r="P30" t="n">
-        <v>2331.409196715653</v>
+        <v>2356.174174746173</v>
       </c>
       <c r="Q30" t="n">
-        <v>2540.257138726933</v>
+        <v>2565.022116757453</v>
       </c>
       <c r="R30" t="n">
         <v>2565.022116757453</v>
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>560.3011052469334</v>
+        <v>577.5441637166605</v>
       </c>
       <c r="C31" t="n">
-        <v>391.3649223190265</v>
+        <v>408.6079807887536</v>
       </c>
       <c r="D31" t="n">
-        <v>241.2482829066908</v>
+        <v>408.6079807887536</v>
       </c>
       <c r="E31" t="n">
-        <v>241.2482829066908</v>
+        <v>408.6079807887536</v>
       </c>
       <c r="F31" t="n">
-        <v>94.35833540878045</v>
+        <v>261.7180332908432</v>
       </c>
       <c r="G31" t="n">
         <v>94.35833540878045</v>
@@ -6643,28 +6643,28 @@
         <v>2288.546551401335</v>
       </c>
       <c r="R31" t="n">
-        <v>2288.546551401335</v>
+        <v>2214.144859831204</v>
       </c>
       <c r="S31" t="n">
-        <v>2102.84063968952</v>
+        <v>2028.438948119389</v>
       </c>
       <c r="T31" t="n">
-        <v>1882.540162525524</v>
+        <v>1808.138470955393</v>
       </c>
       <c r="U31" t="n">
-        <v>1593.456012309888</v>
+        <v>1519.054320739758</v>
       </c>
       <c r="V31" t="n">
-        <v>1338.771524104001</v>
+        <v>1264.369832533871</v>
       </c>
       <c r="W31" t="n">
-        <v>1190.731700118721</v>
+        <v>1207.974758588448</v>
       </c>
       <c r="X31" t="n">
-        <v>962.7421492207033</v>
+        <v>979.9852076904303</v>
       </c>
       <c r="Y31" t="n">
-        <v>741.9495700771731</v>
+        <v>759.1926285469002</v>
       </c>
     </row>
     <row r="32">
@@ -6680,28 +6680,28 @@
         <v>1784.429621497864</v>
       </c>
       <c r="D32" t="n">
-        <v>1458.093420216583</v>
+        <v>1458.093420216582</v>
       </c>
       <c r="E32" t="n">
-        <v>1104.234664943807</v>
+        <v>1104.234664943806</v>
       </c>
       <c r="F32" t="n">
-        <v>725.1782574796681</v>
+        <v>725.1782574796674</v>
       </c>
       <c r="G32" t="n">
-        <v>342.8002736162839</v>
+        <v>342.8002736162838</v>
       </c>
       <c r="H32" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="I32" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J32" t="n">
         <v>337.4933016076836</v>
       </c>
       <c r="K32" t="n">
-        <v>766.6831886951448</v>
+        <v>766.6831886951447</v>
       </c>
       <c r="L32" t="n">
         <v>1336.032957050963</v>
@@ -6710,7 +6710,7 @@
         <v>2001.213713746738</v>
       </c>
       <c r="N32" t="n">
-        <v>2681.771598889755</v>
+        <v>2681.771598889754</v>
       </c>
       <c r="O32" t="n">
         <v>3311.067850233287</v>
@@ -6719,31 +6719,31 @@
         <v>3813.656640612704</v>
       </c>
       <c r="Q32" t="n">
-        <v>4142.907144767229</v>
+        <v>4142.907144767228</v>
       </c>
       <c r="R32" t="n">
-        <v>4249.020448755812</v>
+        <v>4249.020448755811</v>
       </c>
       <c r="S32" t="n">
-        <v>4188.091007924548</v>
+        <v>4188.091007924547</v>
       </c>
       <c r="T32" t="n">
-        <v>4017.391409283566</v>
+        <v>4017.391409283565</v>
       </c>
       <c r="U32" t="n">
-        <v>3795.851627400163</v>
+        <v>3795.851627400162</v>
       </c>
       <c r="V32" t="n">
-        <v>3496.718237382061</v>
+        <v>3496.71823738206</v>
       </c>
       <c r="W32" t="n">
-        <v>3175.879079437415</v>
+        <v>3175.879079437414</v>
       </c>
       <c r="X32" t="n">
-        <v>2834.342818501804</v>
+        <v>2834.342818501803</v>
       </c>
       <c r="Y32" t="n">
-        <v>2476.132983851461</v>
+        <v>2476.13298385146</v>
       </c>
     </row>
     <row r="33">
@@ -6771,34 +6771,34 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H33" t="n">
-        <v>89.89576342177182</v>
+        <v>89.89576342177179</v>
       </c>
       <c r="I33" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J33" t="n">
-        <v>84.98040897511625</v>
+        <v>216.5575109835859</v>
       </c>
       <c r="K33" t="n">
-        <v>388.0214583249806</v>
+        <v>519.5985603334502</v>
       </c>
       <c r="L33" t="n">
-        <v>841.820087919308</v>
+        <v>973.3971899277776</v>
       </c>
       <c r="M33" t="n">
-        <v>1390.738552529597</v>
+        <v>973.3971899277776</v>
       </c>
       <c r="N33" t="n">
-        <v>1968.593900456</v>
+        <v>1453.289737812102</v>
       </c>
       <c r="O33" t="n">
-        <v>2143.777656741113</v>
+        <v>1959.694692760353</v>
       </c>
       <c r="P33" t="n">
-        <v>2530.879212293269</v>
+        <v>2346.796248312508</v>
       </c>
       <c r="Q33" t="n">
-        <v>2530.879212293269</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R33" t="n">
         <v>2555.644190323788</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>872.8624197502098</v>
+        <v>872.8624197502102</v>
       </c>
       <c r="C34" t="n">
-        <v>735.8557341477715</v>
+        <v>735.855734147772</v>
       </c>
       <c r="D34" t="n">
-        <v>617.6685920609044</v>
+        <v>617.6685920609049</v>
       </c>
       <c r="E34" t="n">
-        <v>501.68499580398</v>
+        <v>501.6849958039804</v>
       </c>
       <c r="F34" t="n">
-        <v>386.7245456315383</v>
+        <v>386.7245456315387</v>
       </c>
       <c r="G34" t="n">
-        <v>251.2943450749441</v>
+        <v>251.2943450749444</v>
       </c>
       <c r="H34" t="n">
-        <v>140.0574709897928</v>
+        <v>140.0574709897931</v>
       </c>
       <c r="I34" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J34" t="n">
-        <v>185.1742787042785</v>
+        <v>185.1742787042784</v>
       </c>
       <c r="K34" t="n">
-        <v>459.5287020443612</v>
+        <v>459.528702044361</v>
       </c>
       <c r="L34" t="n">
-        <v>857.3827676902787</v>
+        <v>857.3827676902785</v>
       </c>
       <c r="M34" t="n">
         <v>1285.552079040893</v>
@@ -6871,22 +6871,22 @@
         <v>1709.719201354973</v>
       </c>
       <c r="O34" t="n">
-        <v>2087.878830313936</v>
+        <v>2087.878830313935</v>
       </c>
       <c r="P34" t="n">
         <v>2392.455631028688</v>
       </c>
       <c r="Q34" t="n">
-        <v>2529.521427597205</v>
+        <v>2529.521427597204</v>
       </c>
       <c r="R34" t="n">
-        <v>2487.049233352542</v>
+        <v>2487.049233352543</v>
       </c>
       <c r="S34" t="n">
         <v>2333.272818966196</v>
       </c>
       <c r="T34" t="n">
-        <v>2144.901839127668</v>
+        <v>2144.901839127669</v>
       </c>
       <c r="U34" t="n">
         <v>1887.747186237502</v>
@@ -6898,7 +6898,7 @@
         <v>1407.504522645591</v>
       </c>
       <c r="X34" t="n">
-        <v>1211.444469073042</v>
+        <v>1211.444469073043</v>
       </c>
       <c r="Y34" t="n">
         <v>1022.581387254981</v>
@@ -6917,70 +6917,70 @@
         <v>1784.429621497864</v>
       </c>
       <c r="D35" t="n">
-        <v>1458.093420216583</v>
+        <v>1458.093420216582</v>
       </c>
       <c r="E35" t="n">
-        <v>1104.234664943807</v>
+        <v>1104.234664943806</v>
       </c>
       <c r="F35" t="n">
-        <v>725.1782574796681</v>
+        <v>725.1782574796674</v>
       </c>
       <c r="G35" t="n">
         <v>342.8002736162838</v>
       </c>
       <c r="H35" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="I35" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J35" t="n">
-        <v>337.4933016076836</v>
+        <v>337.4933016076839</v>
       </c>
       <c r="K35" t="n">
-        <v>766.6831886951448</v>
+        <v>766.6831886951452</v>
       </c>
       <c r="L35" t="n">
         <v>1336.032957050963</v>
       </c>
       <c r="M35" t="n">
-        <v>2001.213713746738</v>
+        <v>2001.213713746739</v>
       </c>
       <c r="N35" t="n">
         <v>2681.771598889755</v>
       </c>
       <c r="O35" t="n">
-        <v>3311.067850233287</v>
+        <v>3311.067850233288</v>
       </c>
       <c r="P35" t="n">
         <v>3813.656640612704</v>
       </c>
       <c r="Q35" t="n">
-        <v>4142.907144767229</v>
+        <v>4142.907144767228</v>
       </c>
       <c r="R35" t="n">
-        <v>4249.020448755812</v>
+        <v>4249.020448755811</v>
       </c>
       <c r="S35" t="n">
-        <v>4188.091007924548</v>
+        <v>4188.091007924547</v>
       </c>
       <c r="T35" t="n">
-        <v>4017.391409283566</v>
+        <v>4017.391409283565</v>
       </c>
       <c r="U35" t="n">
-        <v>3795.851627400163</v>
+        <v>3795.851627400162</v>
       </c>
       <c r="V35" t="n">
-        <v>3496.718237382061</v>
+        <v>3496.71823738206</v>
       </c>
       <c r="W35" t="n">
-        <v>3175.879079437415</v>
+        <v>3175.879079437414</v>
       </c>
       <c r="X35" t="n">
-        <v>2834.342818501804</v>
+        <v>2834.342818501803</v>
       </c>
       <c r="Y35" t="n">
-        <v>2476.132983851461</v>
+        <v>2476.13298385146</v>
       </c>
     </row>
     <row r="36">
@@ -7008,10 +7008,10 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H36" t="n">
-        <v>89.89576342177182</v>
+        <v>89.89576342177179</v>
       </c>
       <c r="I36" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J36" t="n">
         <v>216.5575109835859</v>
@@ -7026,16 +7026,16 @@
         <v>973.3971899277776</v>
       </c>
       <c r="N36" t="n">
-        <v>1551.25253785418</v>
+        <v>1453.289737812102</v>
       </c>
       <c r="O36" t="n">
-        <v>2057.65749280243</v>
+        <v>1959.694692760353</v>
       </c>
       <c r="P36" t="n">
-        <v>2444.759048354586</v>
+        <v>2346.796248312508</v>
       </c>
       <c r="Q36" t="n">
-        <v>2530.879212293269</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R36" t="n">
         <v>2555.644190323788</v>
@@ -7081,31 +7081,31 @@
         <v>501.6849958039802</v>
       </c>
       <c r="F37" t="n">
-        <v>386.7245456315386</v>
+        <v>386.7245456315384</v>
       </c>
       <c r="G37" t="n">
-        <v>251.2943450749444</v>
+        <v>251.2943450749443</v>
       </c>
       <c r="H37" t="n">
-        <v>140.0574709897932</v>
+        <v>140.0574709897931</v>
       </c>
       <c r="I37" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J37" t="n">
-        <v>185.1742787042785</v>
+        <v>185.1742787042781</v>
       </c>
       <c r="K37" t="n">
-        <v>459.5287020443612</v>
+        <v>459.5287020443608</v>
       </c>
       <c r="L37" t="n">
-        <v>857.3827676902787</v>
+        <v>857.3827676902783</v>
       </c>
       <c r="M37" t="n">
         <v>1285.552079040893</v>
       </c>
       <c r="N37" t="n">
-        <v>1709.719201354973</v>
+        <v>1709.719201354972</v>
       </c>
       <c r="O37" t="n">
         <v>2087.878830313935</v>
@@ -7114,16 +7114,16 @@
         <v>2392.455631028688</v>
       </c>
       <c r="Q37" t="n">
-        <v>2529.521427597205</v>
+        <v>2529.521427597204</v>
       </c>
       <c r="R37" t="n">
-        <v>2487.049233352543</v>
+        <v>2487.049233352542</v>
       </c>
       <c r="S37" t="n">
-        <v>2333.272818966196</v>
+        <v>2333.272818966195</v>
       </c>
       <c r="T37" t="n">
-        <v>2144.901839127669</v>
+        <v>2144.901839127668</v>
       </c>
       <c r="U37" t="n">
         <v>1887.747186237502</v>
@@ -7135,7 +7135,7 @@
         <v>1407.504522645591</v>
       </c>
       <c r="X37" t="n">
-        <v>1211.444469073042</v>
+        <v>1211.444469073043</v>
       </c>
       <c r="Y37" t="n">
         <v>1022.581387254981</v>
@@ -7160,55 +7160,55 @@
         <v>1104.234664943806</v>
       </c>
       <c r="F38" t="n">
-        <v>725.1782574796675</v>
+        <v>725.1782574796673</v>
       </c>
       <c r="G38" t="n">
-        <v>342.8002736162838</v>
+        <v>342.8002736162837</v>
       </c>
       <c r="H38" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511606</v>
       </c>
       <c r="I38" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J38" t="n">
         <v>337.4933016076836</v>
       </c>
       <c r="K38" t="n">
-        <v>766.6831886951448</v>
+        <v>766.6831886951447</v>
       </c>
       <c r="L38" t="n">
-        <v>1336.032957050964</v>
+        <v>1336.032957050963</v>
       </c>
       <c r="M38" t="n">
-        <v>2001.21371374674</v>
+        <v>2001.213713746738</v>
       </c>
       <c r="N38" t="n">
-        <v>2681.771598889756</v>
+        <v>2681.771598889754</v>
       </c>
       <c r="O38" t="n">
-        <v>3311.067850233288</v>
+        <v>3311.067850233287</v>
       </c>
       <c r="P38" t="n">
         <v>3813.656640612704</v>
       </c>
       <c r="Q38" t="n">
-        <v>4142.907144767229</v>
+        <v>4142.907144767228</v>
       </c>
       <c r="R38" t="n">
-        <v>4249.020448755812</v>
+        <v>4249.020448755811</v>
       </c>
       <c r="S38" t="n">
-        <v>4188.091007924548</v>
+        <v>4188.091007924547</v>
       </c>
       <c r="T38" t="n">
-        <v>4017.391409283566</v>
+        <v>4017.391409283565</v>
       </c>
       <c r="U38" t="n">
-        <v>3795.851627400163</v>
+        <v>3795.851627400162</v>
       </c>
       <c r="V38" t="n">
-        <v>3496.718237382061</v>
+        <v>3496.71823738206</v>
       </c>
       <c r="W38" t="n">
         <v>3175.879079437414</v>
@@ -7245,10 +7245,10 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H39" t="n">
-        <v>89.89576342177182</v>
+        <v>89.89576342177179</v>
       </c>
       <c r="I39" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J39" t="n">
         <v>216.5575109835859</v>
@@ -7263,16 +7263,16 @@
         <v>1522.315654538067</v>
       </c>
       <c r="N39" t="n">
-        <v>2100.171002464469</v>
+        <v>1959.694692760353</v>
       </c>
       <c r="O39" t="n">
-        <v>2322.031270281989</v>
+        <v>1959.694692760353</v>
       </c>
       <c r="P39" t="n">
-        <v>2322.031270281989</v>
+        <v>2346.796248312508</v>
       </c>
       <c r="Q39" t="n">
-        <v>2530.879212293269</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R39" t="n">
         <v>2555.644190323788</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>872.8624197502105</v>
+        <v>872.8624197502099</v>
       </c>
       <c r="C40" t="n">
-        <v>735.8557341477722</v>
+        <v>735.8557341477716</v>
       </c>
       <c r="D40" t="n">
-        <v>617.6685920609051</v>
+        <v>617.6685920609045</v>
       </c>
       <c r="E40" t="n">
-        <v>501.6849958039807</v>
+        <v>501.6849958039801</v>
       </c>
       <c r="F40" t="n">
-        <v>386.7245456315389</v>
+        <v>386.7245456315384</v>
       </c>
       <c r="G40" t="n">
-        <v>251.2943450749447</v>
+        <v>251.2943450749442</v>
       </c>
       <c r="H40" t="n">
-        <v>140.0574709897935</v>
+        <v>140.0574709897931</v>
       </c>
       <c r="I40" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J40" t="n">
-        <v>185.174278704279</v>
+        <v>185.1742787042785</v>
       </c>
       <c r="K40" t="n">
-        <v>459.5287020443616</v>
+        <v>459.5287020443612</v>
       </c>
       <c r="L40" t="n">
-        <v>857.382767690279</v>
+        <v>857.3827676902786</v>
       </c>
       <c r="M40" t="n">
-        <v>1285.552079040894</v>
+        <v>1285.552079040893</v>
       </c>
       <c r="N40" t="n">
         <v>1709.719201354973</v>
       </c>
       <c r="O40" t="n">
-        <v>2087.878830313936</v>
+        <v>2087.878830313935</v>
       </c>
       <c r="P40" t="n">
-        <v>2392.455631028689</v>
+        <v>2392.455631028688</v>
       </c>
       <c r="Q40" t="n">
-        <v>2529.521427597205</v>
+        <v>2529.521427597204</v>
       </c>
       <c r="R40" t="n">
-        <v>2487.049233352543</v>
+        <v>2487.049233352542</v>
       </c>
       <c r="S40" t="n">
-        <v>2333.272818966197</v>
+        <v>2333.272818966195</v>
       </c>
       <c r="T40" t="n">
-        <v>2144.901839127669</v>
+        <v>2144.901839127668</v>
       </c>
       <c r="U40" t="n">
-        <v>1887.747186237502</v>
+        <v>1887.747186237501</v>
       </c>
       <c r="V40" t="n">
-        <v>1664.992195357084</v>
+        <v>1664.992195357083</v>
       </c>
       <c r="W40" t="n">
-        <v>1407.504522645592</v>
+        <v>1407.504522645591</v>
       </c>
       <c r="X40" t="n">
-        <v>1211.444469073043</v>
+        <v>1211.444469073042</v>
       </c>
       <c r="Y40" t="n">
-        <v>1022.581387254982</v>
+        <v>1022.581387254981</v>
       </c>
     </row>
     <row r="41">
@@ -7385,19 +7385,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2121.462641112806</v>
+        <v>2121.462641112807</v>
       </c>
       <c r="C41" t="n">
-        <v>1784.429621497862</v>
+        <v>1784.429621497864</v>
       </c>
       <c r="D41" t="n">
-        <v>1458.093420216581</v>
+        <v>1458.093420216582</v>
       </c>
       <c r="E41" t="n">
-        <v>1104.234664943805</v>
+        <v>1104.234664943806</v>
       </c>
       <c r="F41" t="n">
-        <v>725.1782574796662</v>
+        <v>725.1782574796671</v>
       </c>
       <c r="G41" t="n">
         <v>342.8002736162839</v>
@@ -7418,16 +7418,16 @@
         <v>1336.032957050963</v>
       </c>
       <c r="M41" t="n">
-        <v>2001.213713746739</v>
+        <v>2001.213713746738</v>
       </c>
       <c r="N41" t="n">
-        <v>2681.771598889755</v>
+        <v>2681.771598889754</v>
       </c>
       <c r="O41" t="n">
-        <v>3311.067850233288</v>
+        <v>3311.067850233287</v>
       </c>
       <c r="P41" t="n">
-        <v>3813.656640612704</v>
+        <v>3813.656640612703</v>
       </c>
       <c r="Q41" t="n">
         <v>4142.907144767228</v>
@@ -7436,25 +7436,25 @@
         <v>4249.020448755811</v>
       </c>
       <c r="S41" t="n">
-        <v>4188.091007924546</v>
+        <v>4188.091007924547</v>
       </c>
       <c r="T41" t="n">
-        <v>4017.391409283564</v>
+        <v>4017.391409283565</v>
       </c>
       <c r="U41" t="n">
-        <v>3795.85162740016</v>
+        <v>3795.851627400162</v>
       </c>
       <c r="V41" t="n">
-        <v>3496.718237382058</v>
+        <v>3496.71823738206</v>
       </c>
       <c r="W41" t="n">
-        <v>3175.879079437413</v>
+        <v>3175.879079437414</v>
       </c>
       <c r="X41" t="n">
-        <v>2834.342818501802</v>
+        <v>2834.342818501803</v>
       </c>
       <c r="Y41" t="n">
-        <v>2476.132983851459</v>
+        <v>2476.13298385146</v>
       </c>
     </row>
     <row r="42">
@@ -7491,25 +7491,25 @@
         <v>216.5575109835859</v>
       </c>
       <c r="K42" t="n">
-        <v>216.5575109835859</v>
+        <v>519.5985603334502</v>
       </c>
       <c r="L42" t="n">
-        <v>670.3561405779133</v>
+        <v>973.3971899277776</v>
       </c>
       <c r="M42" t="n">
-        <v>1219.274605188202</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N42" t="n">
-        <v>1797.129953114605</v>
+        <v>1959.694692760353</v>
       </c>
       <c r="O42" t="n">
-        <v>2303.534908062855</v>
+        <v>1959.694692760353</v>
       </c>
       <c r="P42" t="n">
-        <v>2322.031270281989</v>
+        <v>2346.796248312508</v>
       </c>
       <c r="Q42" t="n">
-        <v>2530.879212293269</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R42" t="n">
         <v>2555.644190323788</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>872.8624197502102</v>
+        <v>872.8624197502094</v>
       </c>
       <c r="C43" t="n">
-        <v>735.8557341477718</v>
+        <v>735.855734147771</v>
       </c>
       <c r="D43" t="n">
-        <v>617.6685920609048</v>
+        <v>617.668592060904</v>
       </c>
       <c r="E43" t="n">
-        <v>501.6849958039803</v>
+        <v>501.6849958039795</v>
       </c>
       <c r="F43" t="n">
-        <v>386.7245456315385</v>
+        <v>386.7245456315377</v>
       </c>
       <c r="G43" t="n">
-        <v>251.2943450749444</v>
+        <v>251.2943450749435</v>
       </c>
       <c r="H43" t="n">
-        <v>140.0574709897931</v>
+        <v>140.0574709897932</v>
       </c>
       <c r="I43" t="n">
         <v>84.98040897511622</v>
@@ -7573,13 +7573,13 @@
         <v>459.5287020443611</v>
       </c>
       <c r="L43" t="n">
-        <v>857.3827676902785</v>
+        <v>857.3827676902786</v>
       </c>
       <c r="M43" t="n">
         <v>1285.552079040893</v>
       </c>
       <c r="N43" t="n">
-        <v>1709.719201354973</v>
+        <v>1709.719201354972</v>
       </c>
       <c r="O43" t="n">
         <v>2087.878830313935</v>
@@ -7594,25 +7594,25 @@
         <v>2487.049233352542</v>
       </c>
       <c r="S43" t="n">
-        <v>2333.272818966196</v>
+        <v>2333.272818966195</v>
       </c>
       <c r="T43" t="n">
-        <v>2144.901839127669</v>
+        <v>2144.901839127668</v>
       </c>
       <c r="U43" t="n">
-        <v>1887.747186237502</v>
+        <v>1887.747186237501</v>
       </c>
       <c r="V43" t="n">
-        <v>1664.992195357084</v>
+        <v>1664.992195357083</v>
       </c>
       <c r="W43" t="n">
-        <v>1407.504522645592</v>
+        <v>1407.504522645591</v>
       </c>
       <c r="X43" t="n">
-        <v>1211.444469073043</v>
+        <v>1211.444469073042</v>
       </c>
       <c r="Y43" t="n">
-        <v>1022.581387254981</v>
+        <v>1022.58138725498</v>
       </c>
     </row>
     <row r="44">
@@ -7634,40 +7634,40 @@
         <v>1104.234664943806</v>
       </c>
       <c r="F44" t="n">
-        <v>725.1782574796675</v>
+        <v>725.1782574796673</v>
       </c>
       <c r="G44" t="n">
-        <v>342.8002736162838</v>
+        <v>342.8002736162837</v>
       </c>
       <c r="H44" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511606</v>
       </c>
       <c r="I44" t="n">
         <v>84.98040897511622</v>
       </c>
       <c r="J44" t="n">
-        <v>337.4933016076839</v>
+        <v>337.4933016076835</v>
       </c>
       <c r="K44" t="n">
-        <v>766.6831886951454</v>
+        <v>766.6831886951446</v>
       </c>
       <c r="L44" t="n">
         <v>1336.032957050963</v>
       </c>
       <c r="M44" t="n">
-        <v>2001.213713746739</v>
+        <v>2001.213713746738</v>
       </c>
       <c r="N44" t="n">
-        <v>2681.771598889755</v>
+        <v>2681.771598889754</v>
       </c>
       <c r="O44" t="n">
-        <v>3311.067850233288</v>
+        <v>3311.067850233286</v>
       </c>
       <c r="P44" t="n">
-        <v>3813.656640612704</v>
+        <v>3813.656640612702</v>
       </c>
       <c r="Q44" t="n">
-        <v>4142.907144767228</v>
+        <v>4142.907144767226</v>
       </c>
       <c r="R44" t="n">
         <v>4249.020448755811</v>
@@ -7728,25 +7728,25 @@
         <v>216.5575109835859</v>
       </c>
       <c r="K45" t="n">
-        <v>216.5575109835859</v>
+        <v>519.5985603334502</v>
       </c>
       <c r="L45" t="n">
-        <v>670.3561405779133</v>
+        <v>973.3971899277775</v>
       </c>
       <c r="M45" t="n">
-        <v>1219.274605188202</v>
+        <v>1522.315654538066</v>
       </c>
       <c r="N45" t="n">
-        <v>1797.129953114605</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="O45" t="n">
-        <v>2303.534908062855</v>
+        <v>2168.542634771632</v>
       </c>
       <c r="P45" t="n">
-        <v>2530.879212293269</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q45" t="n">
-        <v>2530.879212293269</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R45" t="n">
         <v>2555.644190323788</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>872.8624197502102</v>
+        <v>872.8624197502096</v>
       </c>
       <c r="C46" t="n">
-        <v>735.8557341477718</v>
+        <v>735.8557341477714</v>
       </c>
       <c r="D46" t="n">
-        <v>617.6685920609048</v>
+        <v>617.6685920609043</v>
       </c>
       <c r="E46" t="n">
-        <v>501.6849958039803</v>
+        <v>501.6849958039798</v>
       </c>
       <c r="F46" t="n">
-        <v>386.7245456315386</v>
+        <v>386.7245456315381</v>
       </c>
       <c r="G46" t="n">
-        <v>251.2943450749444</v>
+        <v>251.294345074944</v>
       </c>
       <c r="H46" t="n">
         <v>140.0574709897931</v>
@@ -7804,13 +7804,13 @@
         <v>84.98040897511622</v>
       </c>
       <c r="J46" t="n">
-        <v>185.1742787042785</v>
+        <v>185.1742787042784</v>
       </c>
       <c r="K46" t="n">
-        <v>459.5287020443612</v>
+        <v>459.5287020443611</v>
       </c>
       <c r="L46" t="n">
-        <v>857.3827676902787</v>
+        <v>857.3827676902786</v>
       </c>
       <c r="M46" t="n">
         <v>1285.552079040893</v>
@@ -8064,16 +8064,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>123.047446830095</v>
+        <v>274.9430030574977</v>
       </c>
       <c r="N3" t="n">
-        <v>387.9064735273546</v>
+        <v>111.7499598249992</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>194.2018111649845</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8292,28 +8292,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>97.70886253669684</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>71.61136560902986</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>453.1400171549653</v>
+        <v>412.5214197149637</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>252.6414834575626</v>
+        <v>75.10025427888564</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>100.6259618563835</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8541,13 +8541,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>435.9238900028826</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415596</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8687,16 +8687,16 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>16.92474618445613</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
         <v>437.3469244119842</v>
@@ -8705,7 +8705,7 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>321.7987081714826</v>
+        <v>44.25871826219674</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
@@ -8939,13 +8939,13 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>229.3469601565068</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>17.03196949660133</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
         <v>65.71641987298243</v>
@@ -9161,10 +9161,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>17.03196949660128</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -9173,19 +9173,19 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>26.81307078957923</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -9413,16 +9413,16 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>17.03196949660133</v>
       </c>
       <c r="Q20" t="n">
-        <v>83.35981393881718</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9638,7 +9638,7 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>186.1285846686749</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -9647,19 +9647,19 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>26.81307078957951</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9875,13 +9875,13 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>26.81307078957769</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>26.81307078957968</v>
       </c>
       <c r="N26" t="n">
         <v>437.3469244119842</v>
@@ -10112,28 +10112,28 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>14.64646170873152</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>74.29816275741558</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10364,7 +10364,7 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>1.762145984685048e-12</v>
+        <v>8.526512829121202e-13</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -10601,7 +10601,7 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>1.762145984685048e-12</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -10826,7 +10826,7 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>1.591615728102624e-12</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -10838,7 +10838,7 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>8.526512829121202e-13</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -11066,7 +11066,7 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>7.958078640513122e-13</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -11078,7 +11078,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>1.023181539494544e-12</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -11318,7 +11318,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>1.804778548830654e-12</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -22544,25 +22544,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>89.11637806865212</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>108.6931811594794</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>130.719532039356</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>2.88248694093646</v>
+        <v>171.9232912582848</v>
       </c>
       <c r="H2" t="n">
-        <v>94.79428962526615</v>
+        <v>338.0329468943008</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22595,22 +22595,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>205.8118405263978</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>222.4795457699687</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>51.59574476777942</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>73.08445501505753</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>93.57458697611355</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -22702,13 +22702,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -22720,7 +22720,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>161.6656840978772</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -22747,10 +22747,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>80.87383288310646</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>167.2504309812603</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -23258,7 +23258,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>58.34293041167388</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23315,7 +23315,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>58.34293041167371</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,10 +23464,10 @@
         <v>88.93215267004734</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>182.1679443159947</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23476,10 +23476,10 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>48.8862531492812</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>102.5641660555354</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>141.7347076965137</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>64.6907255535382</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>73.65767465442973</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23890,25 +23890,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>26.61903021435757</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.6861009032421</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>86.13649374674407</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,10 +23938,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>183.8488525946973</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>171.5071023474091</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23950,7 +23950,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24133,19 +24133,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.6861009032421</v>
+        <v>85.27082710769098</v>
       </c>
       <c r="H22" t="n">
         <v>141.7347076965137</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>86.13649374674407</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,13 +24172,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>73.65767465442973</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>218.097472392356</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>5.82108357390797</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24364,22 +24364,22 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.6861009032421</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>141.7347076965137</v>
+        <v>59.7587137055768</v>
       </c>
       <c r="I25" t="n">
         <v>86.13649374674407</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>73.65767465442973</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>140.9764872148011</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24604,22 +24604,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>67.81288188563747</v>
       </c>
       <c r="F28" t="n">
-        <v>61.31600653688217</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.6861009032421</v>
       </c>
       <c r="H28" t="n">
         <v>141.7347076965137</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>86.13649374674407</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,13 +24646,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>73.65767465442973</v>
       </c>
       <c r="S28" t="n">
-        <v>183.8488525946973</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>218.097472392356</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24841,7 +24841,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24850,7 +24850,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.6861009032421</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>141.7347076965137</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>73.65767465442973</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24898,7 +24898,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>139.9635725911631</v>
+        <v>230.6918751306222</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1352619.026230244</v>
+        <v>1352619.026230243</v>
       </c>
     </row>
     <row r="6">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>53983.86506030998</v>
+        <v>53983.86506030997</v>
       </c>
       <c r="C2" t="n">
-        <v>61578.13273982128</v>
+        <v>61578.13273982122</v>
       </c>
       <c r="D2" t="n">
-        <v>61578.13273982122</v>
+        <v>61578.13273982125</v>
       </c>
       <c r="E2" t="n">
-        <v>59213.96073848978</v>
+        <v>59213.96073848979</v>
       </c>
       <c r="F2" t="n">
-        <v>60221.63021779166</v>
+        <v>60221.63021779165</v>
       </c>
       <c r="G2" t="n">
-        <v>60221.63021779164</v>
+        <v>60221.63021779165</v>
       </c>
       <c r="H2" t="n">
-        <v>60221.63021779167</v>
+        <v>60221.63021779162</v>
       </c>
       <c r="I2" t="n">
         <v>60221.63021779164</v>
       </c>
       <c r="J2" t="n">
-        <v>60221.63021779165</v>
+        <v>60221.63021779164</v>
       </c>
       <c r="K2" t="n">
-        <v>60221.63021779166</v>
+        <v>60221.63021779164</v>
       </c>
       <c r="L2" t="n">
-        <v>61578.13273982126</v>
+        <v>61578.13273982125</v>
       </c>
       <c r="M2" t="n">
         <v>61578.13273982127</v>
       </c>
       <c r="N2" t="n">
-        <v>61578.13273982125</v>
+        <v>61578.13273982124</v>
       </c>
       <c r="O2" t="n">
         <v>61578.13273982127</v>
       </c>
       <c r="P2" t="n">
-        <v>61578.13273982126</v>
+        <v>61578.13273982123</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>126293.3414468129</v>
+        <v>126293.341446813</v>
       </c>
       <c r="C3" t="n">
-        <v>139285.2269028881</v>
+        <v>139285.2269028857</v>
       </c>
       <c r="D3" t="n">
-        <v>285333.2712174748</v>
+        <v>285333.2712174769</v>
       </c>
       <c r="E3" t="n">
-        <v>722888.6705702832</v>
+        <v>722888.6705702834</v>
       </c>
       <c r="F3" t="n">
         <v>148906.5348318534</v>
@@ -26387,13 +26387,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>72254.69487113896</v>
+        <v>72254.6948711391</v>
       </c>
       <c r="K3" t="n">
-        <v>32384.28546543786</v>
+        <v>32384.28546543718</v>
       </c>
       <c r="L3" t="n">
-        <v>64536.99804424011</v>
+        <v>64536.99804424059</v>
       </c>
       <c r="M3" t="n">
         <v>125895.8471955952</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-11</v>
       </c>
     </row>
     <row r="4">
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>284310.8296593377</v>
+        <v>284310.8296593376</v>
       </c>
       <c r="C4" t="n">
-        <v>303125.1983228017</v>
+        <v>303125.1983228024</v>
       </c>
       <c r="D4" t="n">
         <v>218780.3249983351</v>
       </c>
       <c r="E4" t="n">
-        <v>30959.70941344821</v>
+        <v>30959.7094134482</v>
       </c>
       <c r="F4" t="n">
-        <v>14598.7404612032</v>
+        <v>14598.74046120319</v>
       </c>
       <c r="G4" t="n">
-        <v>14598.74046120321</v>
+        <v>14598.74046120319</v>
       </c>
       <c r="H4" t="n">
-        <v>14598.74046120318</v>
+        <v>14598.74046120319</v>
       </c>
       <c r="I4" t="n">
+        <v>14598.74046120319</v>
+      </c>
+      <c r="J4" t="n">
         <v>14598.74046120322</v>
       </c>
-      <c r="J4" t="n">
-        <v>14598.74046120318</v>
-      </c>
       <c r="K4" t="n">
-        <v>14598.7404612032</v>
+        <v>14598.74046120322</v>
       </c>
       <c r="L4" t="n">
-        <v>37300.0993259362</v>
+        <v>37300.09932593619</v>
       </c>
       <c r="M4" t="n">
-        <v>37300.0993259362</v>
+        <v>37300.09932593618</v>
       </c>
       <c r="N4" t="n">
-        <v>37300.09932593617</v>
+        <v>37300.09932593621</v>
       </c>
       <c r="O4" t="n">
         <v>37300.09932593617</v>
       </c>
       <c r="P4" t="n">
-        <v>37300.09932593619</v>
+        <v>37300.09932593624</v>
       </c>
     </row>
     <row r="5">
@@ -26470,7 +26470,7 @@
         <v>51181.37951678014</v>
       </c>
       <c r="C5" t="n">
-        <v>61193.07568227815</v>
+        <v>61193.07568227798</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340946</v>
@@ -26491,25 +26491,25 @@
         <v>99576.22009019181</v>
       </c>
       <c r="J5" t="n">
-        <v>99576.22009019178</v>
+        <v>99576.22009019181</v>
       </c>
       <c r="K5" t="n">
         <v>99576.22009019181</v>
       </c>
       <c r="L5" t="n">
-        <v>95106.4341021553</v>
+        <v>95106.43410215527</v>
       </c>
       <c r="M5" t="n">
-        <v>95106.4341021553</v>
+        <v>95106.43410215527</v>
       </c>
       <c r="N5" t="n">
-        <v>95106.4341021553</v>
+        <v>95106.43410215528</v>
       </c>
       <c r="O5" t="n">
         <v>95106.43410215527</v>
       </c>
       <c r="P5" t="n">
-        <v>95106.43410215528</v>
+        <v>95106.43410215527</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-407801.6855626208</v>
+        <v>-408054.8278186045</v>
       </c>
       <c r="C6" t="n">
-        <v>-442025.3681681467</v>
+        <v>-442025.3681681449</v>
       </c>
       <c r="D6" t="n">
-        <v>-525394.5415393981</v>
+        <v>-525394.5415394002</v>
       </c>
       <c r="E6" t="n">
-        <v>-790103.8862288487</v>
+        <v>-790182.6919622266</v>
       </c>
       <c r="F6" t="n">
-        <v>-202859.8651654568</v>
+        <v>-202905.0819161911</v>
       </c>
       <c r="G6" t="n">
-        <v>-53953.33033360339</v>
+        <v>-53998.54708433767</v>
       </c>
       <c r="H6" t="n">
-        <v>-53953.33033360333</v>
+        <v>-53998.5470843377</v>
       </c>
       <c r="I6" t="n">
-        <v>-53953.33033360339</v>
+        <v>-53998.54708433768</v>
       </c>
       <c r="J6" t="n">
-        <v>-126208.0252047423</v>
+        <v>-126253.2419554768</v>
       </c>
       <c r="K6" t="n">
-        <v>-86337.6157990412</v>
+        <v>-86382.83254977489</v>
       </c>
       <c r="L6" t="n">
-        <v>-135365.3987325103</v>
+        <v>-135365.3987325108</v>
       </c>
       <c r="M6" t="n">
-        <v>-196724.2478838655</v>
+        <v>-196724.2478838654</v>
       </c>
       <c r="N6" t="n">
-        <v>-70828.40068827022</v>
+        <v>-70828.40068827025</v>
       </c>
       <c r="O6" t="n">
         <v>-70828.40068827017</v>
       </c>
       <c r="P6" t="n">
-        <v>-70828.40068827021</v>
+        <v>-70828.40068827033</v>
       </c>
     </row>
   </sheetData>
@@ -26713,19 +26713,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="M2" t="n">
         <v>31.61020235221394</v>
       </c>
       <c r="N2" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="O2" t="n">
         <v>31.61020235221391</v>
       </c>
       <c r="P2" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
     </row>
     <row r="3">
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>35.02126071912529</v>
+        <v>35.02126071912534</v>
       </c>
       <c r="C3" t="n">
-        <v>143.3382386043732</v>
+        <v>143.3382386043715</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>276.1565137023554</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="C4" t="n">
-        <v>401.9852315905068</v>
+        <v>401.9852315905047</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545556</v>
@@ -26811,7 +26811,7 @@
         <v>1179.479192609756</v>
       </c>
       <c r="J4" t="n">
-        <v>1179.479192609755</v>
+        <v>1179.479192609756</v>
       </c>
       <c r="K4" t="n">
         <v>1179.479192609756</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
     </row>
     <row r="3">
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>35.02126071912529</v>
+        <v>35.02126071912534</v>
       </c>
       <c r="C3" t="n">
-        <v>108.3169778852479</v>
+        <v>108.3169778852462</v>
       </c>
       <c r="D3" t="n">
-        <v>234.4054256127134</v>
+        <v>234.4054256127151</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762114</v>
+        <v>712.0330363762115</v>
       </c>
       <c r="F3" t="n">
         <v>188.3831700268247</v>
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>276.1565137023554</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="C4" t="n">
-        <v>125.8287178881514</v>
+        <v>125.8287178881492</v>
       </c>
       <c r="D4" t="n">
-        <v>272.3020411640488</v>
+        <v>272.3020411640509</v>
       </c>
       <c r="E4" t="n">
         <v>505.1919198551999</v>
@@ -27033,13 +27033,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>276.1565137023549</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="K4" t="n">
-        <v>125.8287178881518</v>
+        <v>125.8287178881492</v>
       </c>
       <c r="L4" t="n">
-        <v>155.0779607432464</v>
+        <v>155.0779607432482</v>
       </c>
       <c r="M4" t="n">
         <v>505.1919198551999</v>
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>276.1565137023554</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="K4" t="n">
-        <v>125.8287178881514</v>
+        <v>125.8287178881492</v>
       </c>
       <c r="L4" t="n">
-        <v>272.3020411640488</v>
+        <v>272.3020411640509</v>
       </c>
       <c r="M4" t="n">
         <v>505.1919198551999</v>
@@ -27376,22 +27376,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>245.9898604612035</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>136.1229478840276</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27427,22 +27427,22 @@
         <v>141.0252816852793</v>
       </c>
       <c r="S2" t="n">
-        <v>205.8118405263978</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>222.4795457699687</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.3343897888113</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27455,7 +27455,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -27464,19 +27464,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>115.149224388916</v>
       </c>
       <c r="H3" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>86.80307722268741</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,10 +27503,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>95.48084390037957</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>170.2839726213331</v>
       </c>
       <c r="T3" t="n">
         <v>199.8611009721718</v>
@@ -27515,16 +27515,16 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>152.0489444149878</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27534,13 +27534,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27549,10 +27549,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.9278262653587</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>161.6656840978772</v>
       </c>
       <c r="I4" t="n">
         <v>153.551289182031</v>
@@ -27579,16 +27579,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>174.4537986637794</v>
       </c>
       <c r="S4" t="n">
         <v>222.9160118599466</v>
       </c>
       <c r="T4" t="n">
-        <v>227.6757534850358</v>
+        <v>52.54455953715791</v>
       </c>
       <c r="U4" t="n">
         <v>286.3155846423218</v>
@@ -27616,25 +27616,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>85.19545301858022</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>378.0208599510865</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>333.5734443826735</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>188.260623464697</v>
+        <v>188.2606234646972</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,22 +27664,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>195.8891344618348</v>
       </c>
       <c r="T5" t="n">
         <v>220.5733846817569</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2995541778331</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27698,7 +27698,7 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -27710,10 +27710,10 @@
         <v>137.0352047254578</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>109.2577951666207</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>78.78148970948756</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,16 +27740,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>81.01541806128928</v>
+        <v>81.01541806128951</v>
       </c>
       <c r="S6" t="n">
-        <v>165.9564027973329</v>
+        <v>165.956402797333</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>91.44943164795001</v>
       </c>
       <c r="U6" t="n">
-        <v>152.1917641238983</v>
+        <v>225.9210983679648</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -27758,7 +27758,7 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -27789,13 +27789,13 @@
         <v>167.7325005675328</v>
       </c>
       <c r="H7" t="n">
-        <v>159.9290610753891</v>
+        <v>159.9290610753892</v>
       </c>
       <c r="I7" t="n">
-        <v>113.2658653214884</v>
+        <v>147.6773127419589</v>
       </c>
       <c r="J7" t="n">
-        <v>75.08472959821032</v>
+        <v>75.08472959821053</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,25 +27816,25 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>64.51796922243403</v>
+        <v>64.51796922243429</v>
       </c>
       <c r="R7" t="n">
-        <v>165.6712450142641</v>
+        <v>165.6712450142642</v>
       </c>
       <c r="S7" t="n">
         <v>219.5120176532906</v>
       </c>
       <c r="T7" t="n">
-        <v>226.8411800488707</v>
+        <v>226.8411800488708</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.3049305133495</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>217.9442637266017</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>106.9179653749534</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27865,7 +27865,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>362.0020076349333</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28020,19 +28020,19 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>118.2178427284374</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,10 +28053,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>20.34522396490269</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28071,10 +28071,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -29746,25 +29746,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="C32" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="D32" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="E32" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="F32" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="G32" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="H32" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="I32" t="n">
         <v>12.38037836605497</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="T32" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="U32" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="V32" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="W32" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="X32" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Y32" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221394</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="C34" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="D34" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="E34" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="F34" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="G34" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="H34" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="I34" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="J34" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="K34" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="L34" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="M34" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="N34" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="O34" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="P34" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Q34" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="R34" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="S34" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="T34" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="U34" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="V34" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="W34" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="X34" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Y34" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221394</v>
       </c>
     </row>
     <row r="35">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="C38" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="D38" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="E38" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="F38" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="G38" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="H38" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="I38" t="n">
         <v>12.38037836605497</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="T38" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="U38" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="V38" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="W38" t="n">
-        <v>31.61020235221338</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="X38" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Y38" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221395</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="C40" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="D40" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="E40" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="F40" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="G40" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="H40" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="I40" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="J40" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="K40" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="L40" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="M40" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="N40" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="O40" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="P40" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Q40" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="R40" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="S40" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="T40" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="U40" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="V40" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="W40" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="X40" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Y40" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221395</v>
       </c>
     </row>
     <row r="41">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="C44" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="D44" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="E44" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="F44" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="G44" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="H44" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="I44" t="n">
-        <v>12.38037836605497</v>
+        <v>12.38037836605503</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="T44" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="U44" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="V44" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="W44" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="X44" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="Y44" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="C46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="D46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="E46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="F46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="G46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="H46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="I46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="J46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="K46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="L46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="M46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="N46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="O46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="P46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="Q46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="R46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="S46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="T46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="U46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="V46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="W46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="X46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="Y46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
     </row>
   </sheetData>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.140788987815579</v>
+        <v>0.1407889878155791</v>
       </c>
       <c r="H2" t="n">
-        <v>1.441855221466299</v>
+        <v>1.4418552214663</v>
       </c>
       <c r="I2" t="n">
-        <v>5.427767452760113</v>
+        <v>5.42776745276012</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461251</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
-        <v>17.90888720884597</v>
+        <v>17.90888720884599</v>
       </c>
       <c r="L2" t="n">
-        <v>22.217558194707</v>
+        <v>22.21755819470702</v>
       </c>
       <c r="M2" t="n">
-        <v>24.7213143567723</v>
+        <v>24.72131435677233</v>
       </c>
       <c r="N2" t="n">
-        <v>25.12133106840331</v>
+        <v>25.12133106840334</v>
       </c>
       <c r="O2" t="n">
-        <v>23.72136057081215</v>
+        <v>23.72136057081218</v>
       </c>
       <c r="P2" t="n">
-        <v>20.24563243411504</v>
+        <v>20.24563243411507</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.20362680796961</v>
+        <v>15.20362680796963</v>
       </c>
       <c r="R2" t="n">
-        <v>8.84383625587037</v>
+        <v>8.84383625587038</v>
       </c>
       <c r="S2" t="n">
-        <v>3.208229059847509</v>
+        <v>3.208229059847513</v>
       </c>
       <c r="T2" t="n">
-        <v>0.6163037941626972</v>
+        <v>0.616303794162698</v>
       </c>
       <c r="U2" t="n">
-        <v>0.01126311902524632</v>
+        <v>0.01126311902524633</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0753287494713261</v>
+        <v>0.0753287494713262</v>
       </c>
       <c r="H3" t="n">
-        <v>0.727517133052018</v>
+        <v>0.7275171330520189</v>
       </c>
       <c r="I3" t="n">
-        <v>2.593555628727676</v>
+        <v>2.593555628727679</v>
       </c>
       <c r="J3" t="n">
-        <v>7.116914878779982</v>
+        <v>7.116914878779991</v>
       </c>
       <c r="K3" t="n">
-        <v>12.16394109335883</v>
+        <v>12.16394109335885</v>
       </c>
       <c r="L3" t="n">
-        <v>16.35591992358772</v>
+        <v>16.35591992358773</v>
       </c>
       <c r="M3" t="n">
-        <v>19.08658709192328</v>
+        <v>19.08658709192331</v>
       </c>
       <c r="N3" t="n">
-        <v>19.59175225833406</v>
+        <v>19.59175225833409</v>
       </c>
       <c r="O3" t="n">
-        <v>17.92262575689047</v>
+        <v>17.92262575689049</v>
       </c>
       <c r="P3" t="n">
-        <v>14.38448725650261</v>
+        <v>14.38448725650263</v>
       </c>
       <c r="Q3" t="n">
-        <v>9.615648792164365</v>
+        <v>9.615648792164377</v>
       </c>
       <c r="R3" t="n">
-        <v>4.676990252263565</v>
+        <v>4.676990252263571</v>
       </c>
       <c r="S3" t="n">
-        <v>1.399198482504675</v>
+        <v>1.399198482504676</v>
       </c>
       <c r="T3" t="n">
-        <v>0.3036277226497748</v>
+        <v>0.3036277226497752</v>
       </c>
       <c r="U3" t="n">
-        <v>0.004955838781008299</v>
+        <v>0.004955838781008305</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.06315309310006199</v>
+        <v>0.06315309310006208</v>
       </c>
       <c r="H4" t="n">
-        <v>0.5614884095623698</v>
+        <v>0.5614884095623704</v>
       </c>
       <c r="I4" t="n">
-        <v>1.89918574522732</v>
+        <v>1.899185745227322</v>
       </c>
       <c r="J4" t="n">
-        <v>4.464923682174383</v>
+        <v>4.464923682174389</v>
       </c>
       <c r="K4" t="n">
-        <v>7.337241180170838</v>
+        <v>7.337241180170847</v>
       </c>
       <c r="L4" t="n">
-        <v>9.389142586894673</v>
+        <v>9.389142586894685</v>
       </c>
       <c r="M4" t="n">
-        <v>9.899534402948808</v>
+        <v>9.89953440294882</v>
       </c>
       <c r="N4" t="n">
-        <v>9.66414560139404</v>
+        <v>9.664145601394052</v>
       </c>
       <c r="O4" t="n">
-        <v>8.926402650179675</v>
+        <v>8.926402650179687</v>
       </c>
       <c r="P4" t="n">
-        <v>7.638079550938405</v>
+        <v>7.638079550938414</v>
       </c>
       <c r="Q4" t="n">
-        <v>5.28821036858792</v>
+        <v>5.288210368587926</v>
       </c>
       <c r="R4" t="n">
-        <v>2.83959271339006</v>
+        <v>2.839592713390063</v>
       </c>
       <c r="S4" t="n">
-        <v>1.100586177025626</v>
+        <v>1.100586177025627</v>
       </c>
       <c r="T4" t="n">
-        <v>0.2698359432457194</v>
+        <v>0.2698359432457197</v>
       </c>
       <c r="U4" t="n">
-        <v>0.003444714169094295</v>
+        <v>0.003444714169094299</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.576234125042706</v>
+        <v>0.576234125042699</v>
       </c>
       <c r="H5" t="n">
-        <v>5.901357733093614</v>
+        <v>5.901357733093543</v>
       </c>
       <c r="I5" t="n">
-        <v>22.21526610570895</v>
+        <v>22.21526610570868</v>
       </c>
       <c r="J5" t="n">
-        <v>48.90715107034342</v>
+        <v>48.90715107034282</v>
       </c>
       <c r="K5" t="n">
-        <v>73.29914158340118</v>
+        <v>73.29914158340029</v>
       </c>
       <c r="L5" t="n">
-        <v>90.9340666876769</v>
+        <v>90.93406668767581</v>
       </c>
       <c r="M5" t="n">
-        <v>101.1816703089051</v>
+        <v>101.1816703089039</v>
       </c>
       <c r="N5" t="n">
-        <v>102.8188955166827</v>
+        <v>102.8188955166815</v>
       </c>
       <c r="O5" t="n">
-        <v>97.08896743578931</v>
+        <v>97.08896743578813</v>
       </c>
       <c r="P5" t="n">
-        <v>82.8631874737975</v>
+        <v>82.86318747379649</v>
       </c>
       <c r="Q5" t="n">
-        <v>62.22680287070556</v>
+        <v>62.22680287070481</v>
       </c>
       <c r="R5" t="n">
-        <v>36.19686685721391</v>
+        <v>36.19686685721348</v>
       </c>
       <c r="S5" t="n">
-        <v>13.13093512441068</v>
+        <v>13.13093512441052</v>
       </c>
       <c r="T5" t="n">
-        <v>2.522464882374447</v>
+        <v>2.522464882374416</v>
       </c>
       <c r="U5" t="n">
-        <v>0.04609873000341647</v>
+        <v>0.04609873000341592</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.3083124377528028</v>
+        <v>0.3083124377527991</v>
       </c>
       <c r="H6" t="n">
-        <v>2.977649069875754</v>
+        <v>2.977649069875718</v>
       </c>
       <c r="I6" t="n">
-        <v>10.61514314192764</v>
+        <v>10.61514314192751</v>
       </c>
       <c r="J6" t="n">
-        <v>29.12876412996985</v>
+        <v>29.1287641299695</v>
       </c>
       <c r="K6" t="n">
-        <v>49.78569745940764</v>
+        <v>49.78569745940704</v>
       </c>
       <c r="L6" t="n">
-        <v>66.94301417084432</v>
+        <v>66.94301417084351</v>
       </c>
       <c r="M6" t="n">
-        <v>78.1193400393834</v>
+        <v>78.11934003938245</v>
       </c>
       <c r="N6" t="n">
-        <v>80.1869265188748</v>
+        <v>80.18692651887383</v>
       </c>
       <c r="O6" t="n">
-        <v>73.35537197708901</v>
+        <v>73.35537197708811</v>
       </c>
       <c r="P6" t="n">
-        <v>58.8741531354453</v>
+        <v>58.87415313544459</v>
       </c>
       <c r="Q6" t="n">
-        <v>39.35581222963848</v>
+        <v>39.355812229638</v>
       </c>
       <c r="R6" t="n">
-        <v>19.14241609135385</v>
+        <v>19.14241609135362</v>
       </c>
       <c r="S6" t="n">
-        <v>5.726768306504908</v>
+        <v>5.726768306504839</v>
       </c>
       <c r="T6" t="n">
-        <v>1.242715483749235</v>
+        <v>1.24271548374922</v>
       </c>
       <c r="U6" t="n">
-        <v>0.02028371301005282</v>
+        <v>0.02028371301005258</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.2584787909259189</v>
+        <v>0.2584787909259158</v>
       </c>
       <c r="H7" t="n">
-        <v>2.298111432050444</v>
+        <v>2.298111432050417</v>
       </c>
       <c r="I7" t="n">
-        <v>7.773162185299455</v>
+        <v>7.773162185299361</v>
       </c>
       <c r="J7" t="n">
-        <v>18.27445051846247</v>
+        <v>18.27445051846225</v>
       </c>
       <c r="K7" t="n">
-        <v>30.0305358912113</v>
+        <v>30.03053589121094</v>
       </c>
       <c r="L7" t="n">
-        <v>38.42874678911344</v>
+        <v>38.42874678911298</v>
       </c>
       <c r="M7" t="n">
-        <v>40.5177253812329</v>
+        <v>40.51772538123241</v>
       </c>
       <c r="N7" t="n">
-        <v>39.55430443323633</v>
+        <v>39.55430443323585</v>
       </c>
       <c r="O7" t="n">
-        <v>36.53480219378353</v>
+        <v>36.53480219378309</v>
       </c>
       <c r="P7" t="n">
-        <v>31.26183485889476</v>
+        <v>31.26183485889439</v>
       </c>
       <c r="Q7" t="n">
-        <v>21.64407402926036</v>
+        <v>21.6440740292601</v>
       </c>
       <c r="R7" t="n">
-        <v>11.62214636290541</v>
+        <v>11.62214636290527</v>
       </c>
       <c r="S7" t="n">
-        <v>4.504580383681694</v>
+        <v>4.50458038368164</v>
       </c>
       <c r="T7" t="n">
-        <v>1.104409379410744</v>
+        <v>1.104409379410731</v>
       </c>
       <c r="U7" t="n">
-        <v>0.01409884314141377</v>
+        <v>0.0140988431414136</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,13 +31513,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31537,22 +31537,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31625,16 +31625,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,13 +31695,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31710,7 +31710,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -32084,22 +32084,22 @@
         <v>596.9368339155584</v>
       </c>
       <c r="M15" t="n">
-        <v>696.5971294879669</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
         <v>715.0339827160628</v>
       </c>
       <c r="O15" t="n">
-        <v>391.712654391959</v>
+        <v>530.1489483592459</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>524.986079689235</v>
       </c>
       <c r="Q15" t="n">
         <v>350.9392912691326</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>170.6946332877214</v>
       </c>
       <c r="S15" t="n">
         <v>51.06610426486996</v>
@@ -32321,13 +32321,13 @@
         <v>596.9368339155584</v>
       </c>
       <c r="M18" t="n">
-        <v>554.7018671605767</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>715.0339827160628</v>
+        <v>616.0816594412374</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>654.1164009578283</v>
       </c>
       <c r="P18" t="n">
         <v>524.986079689235</v>
@@ -32549,7 +32549,7 @@
         <v>94.65617909781099</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>259.7437903115855</v>
       </c>
       <c r="K21" t="n">
         <v>443.943509024727</v>
@@ -32558,10 +32558,10 @@
         <v>596.9368339155584</v>
       </c>
       <c r="M21" t="n">
-        <v>151.0727449683545</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>715.0339827160628</v>
+        <v>616.0816594412374</v>
       </c>
       <c r="O21" t="n">
         <v>654.1164009578283</v>
@@ -32573,7 +32573,7 @@
         <v>350.9392912691326</v>
       </c>
       <c r="R21" t="n">
-        <v>170.6946332877214</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>51.06610426486996</v>
@@ -32789,7 +32789,7 @@
         <v>259.7437903115855</v>
       </c>
       <c r="K24" t="n">
-        <v>319.9760564261444</v>
+        <v>443.943509024727</v>
       </c>
       <c r="L24" t="n">
         <v>596.9368339155584</v>
@@ -32798,7 +32798,7 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>715.0339827160628</v>
+        <v>616.0816594412374</v>
       </c>
       <c r="O24" t="n">
         <v>654.1164009578283</v>
@@ -32810,7 +32810,7 @@
         <v>350.9392912691326</v>
       </c>
       <c r="R24" t="n">
-        <v>170.6946332877214</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>51.06610426486996</v>
@@ -33032,19 +33032,19 @@
         <v>596.9368339155584</v>
       </c>
       <c r="M27" t="n">
-        <v>696.5971294879669</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>715.0339827160628</v>
+        <v>616.0816594412374</v>
       </c>
       <c r="O27" t="n">
-        <v>211.6584993001651</v>
+        <v>654.1164009578283</v>
       </c>
       <c r="P27" t="n">
         <v>524.986079689235</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>350.9392912691326</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33263,28 +33263,28 @@
         <v>259.7437903115855</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>443.943509024727</v>
       </c>
       <c r="L30" t="n">
         <v>596.9368339155584</v>
       </c>
       <c r="M30" t="n">
-        <v>696.5971294879669</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>715.0339827160628</v>
+        <v>616.0816594412374</v>
       </c>
       <c r="O30" t="n">
         <v>654.1164009578283</v>
       </c>
       <c r="P30" t="n">
-        <v>152.6576015750716</v>
+        <v>524.986079689235</v>
       </c>
       <c r="Q30" t="n">
         <v>350.9392912691326</v>
       </c>
       <c r="R30" t="n">
-        <v>170.6946332877214</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>51.06610426486996</v>
@@ -33497,7 +33497,7 @@
         <v>94.65617909781099</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>259.7437903115855</v>
       </c>
       <c r="K33" t="n">
         <v>443.943509024727</v>
@@ -33506,22 +33506,22 @@
         <v>596.9368339155584</v>
       </c>
       <c r="M33" t="n">
-        <v>696.5971294879669</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>715.0339827160628</v>
+        <v>616.0816594412372</v>
       </c>
       <c r="O33" t="n">
-        <v>319.5495336213265</v>
+        <v>654.1164009578283</v>
       </c>
       <c r="P33" t="n">
         <v>524.986079689235</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>350.9392912691326</v>
       </c>
       <c r="R33" t="n">
-        <v>170.6946332877214</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>51.06610426486996</v>
@@ -33746,7 +33746,7 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>715.0339827160628</v>
+        <v>616.0816594412372</v>
       </c>
       <c r="O36" t="n">
         <v>654.1164009578283</v>
@@ -33755,10 +33755,10 @@
         <v>524.986079689235</v>
       </c>
       <c r="Q36" t="n">
-        <v>226.9718386705495</v>
+        <v>350.9392912691326</v>
       </c>
       <c r="R36" t="n">
-        <v>170.6946332877214</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>51.06610426486996</v>
@@ -33983,19 +33983,19 @@
         <v>696.5971294879669</v>
       </c>
       <c r="N39" t="n">
-        <v>715.0339827160628</v>
+        <v>573.1387203886727</v>
       </c>
       <c r="O39" t="n">
-        <v>366.6975250682018</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>524.986079689235</v>
       </c>
       <c r="Q39" t="n">
         <v>350.9392912691326</v>
       </c>
       <c r="R39" t="n">
-        <v>170.6946332877214</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>51.06610426486996</v>
@@ -34211,7 +34211,7 @@
         <v>259.7437903115855</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>443.943509024727</v>
       </c>
       <c r="L42" t="n">
         <v>596.9368339155584</v>
@@ -34220,19 +34220,19 @@
         <v>696.5971294879669</v>
       </c>
       <c r="N42" t="n">
-        <v>715.0339827160628</v>
+        <v>573.1387203886727</v>
       </c>
       <c r="O42" t="n">
-        <v>654.1164009578283</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>152.6576015750716</v>
+        <v>524.986079689235</v>
       </c>
       <c r="Q42" t="n">
         <v>350.9392912691326</v>
       </c>
       <c r="R42" t="n">
-        <v>170.6946332877214</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>51.06610426486996</v>
@@ -34357,40 +34357,40 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.138331138171344</v>
+        <v>5.138331138171343</v>
       </c>
       <c r="H44" t="n">
-        <v>52.62293376879729</v>
+        <v>52.62293376879728</v>
       </c>
       <c r="I44" t="n">
         <v>198.0955112043509</v>
       </c>
       <c r="J44" t="n">
-        <v>436.1094324383705</v>
+        <v>436.1094324383704</v>
       </c>
       <c r="K44" t="n">
-        <v>653.6149895171636</v>
+        <v>653.6149895171635</v>
       </c>
       <c r="L44" t="n">
-        <v>810.867191086975</v>
+        <v>810.8671910869749</v>
       </c>
       <c r="M44" t="n">
-        <v>902.2459874654296</v>
+        <v>902.2459874654295</v>
       </c>
       <c r="N44" t="n">
-        <v>916.8452708117591</v>
+        <v>916.845270811759</v>
       </c>
       <c r="O44" t="n">
-        <v>865.7509905565677</v>
+        <v>865.7509905565676</v>
       </c>
       <c r="P44" t="n">
-        <v>738.8984405829625</v>
+        <v>738.8984405829624</v>
       </c>
       <c r="Q44" t="n">
-        <v>554.8819566972011</v>
+        <v>554.881956697201</v>
       </c>
       <c r="R44" t="n">
-        <v>322.770693358156</v>
+        <v>322.7706933581559</v>
       </c>
       <c r="S44" t="n">
         <v>117.0897208110796</v>
@@ -34439,37 +34439,37 @@
         <v>2.749249533031962</v>
       </c>
       <c r="H45" t="n">
-        <v>26.55196259533501</v>
+        <v>26.551962595335</v>
       </c>
       <c r="I45" t="n">
-        <v>94.65617909781099</v>
+        <v>94.65617909781098</v>
       </c>
       <c r="J45" t="n">
         <v>259.7437903115855</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>443.9435090247269</v>
       </c>
       <c r="L45" t="n">
-        <v>596.9368339155584</v>
+        <v>596.9368339155583</v>
       </c>
       <c r="M45" t="n">
-        <v>696.5971294879669</v>
+        <v>696.5971294879668</v>
       </c>
       <c r="N45" t="n">
-        <v>715.0339827160628</v>
+        <v>715.0339827160627</v>
       </c>
       <c r="O45" t="n">
-        <v>654.1164009578283</v>
+        <v>211.6584993001656</v>
       </c>
       <c r="P45" t="n">
-        <v>363.6151187581826</v>
+        <v>524.9860796892349</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>170.6946332877214</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>51.06610426486996</v>
@@ -34515,13 +34515,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>2.304878455216615</v>
+        <v>2.304878455216614</v>
       </c>
       <c r="H46" t="n">
-        <v>20.49246481092592</v>
+        <v>20.49246481092591</v>
       </c>
       <c r="I46" t="n">
-        <v>69.31398118051422</v>
+        <v>69.3139811805142</v>
       </c>
       <c r="J46" t="n">
         <v>162.9549067838146</v>
@@ -34530,31 +34530,31 @@
         <v>267.7849696151666</v>
       </c>
       <c r="L46" t="n">
-        <v>342.6725659692048</v>
+        <v>342.6725659692047</v>
       </c>
       <c r="M46" t="n">
-        <v>361.3001745754553</v>
+        <v>361.3001745754552</v>
       </c>
       <c r="N46" t="n">
-        <v>352.7092639696482</v>
+        <v>352.7092639696481</v>
       </c>
       <c r="O46" t="n">
-        <v>325.7840929246176</v>
+        <v>325.7840929246175</v>
       </c>
       <c r="P46" t="n">
-        <v>278.7645724381985</v>
+        <v>278.7645724381984</v>
       </c>
       <c r="Q46" t="n">
         <v>193.0021404636385</v>
       </c>
       <c r="R46" t="n">
-        <v>103.6357167227398</v>
+        <v>103.6357167227397</v>
       </c>
       <c r="S46" t="n">
         <v>40.16774544227498</v>
       </c>
       <c r="T46" t="n">
-        <v>9.848117035925533</v>
+        <v>9.848117035925531</v>
       </c>
       <c r="U46" t="n">
         <v>0.1257206430118155</v>
@@ -34714,10 +34714,10 @@
         <v>174.4233304118708</v>
       </c>
       <c r="P2" t="n">
-        <v>110.8113448503281</v>
+        <v>110.8113448503282</v>
       </c>
       <c r="Q2" t="n">
-        <v>5.212927593424808</v>
+        <v>5.212927593424828</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>6.370323552522125</v>
+        <v>6.370323552522134</v>
       </c>
       <c r="K3" t="n">
-        <v>138.7877391315784</v>
+        <v>138.7877391315785</v>
       </c>
       <c r="L3" t="n">
         <v>248.6418854471727</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>151.8955562274027</v>
       </c>
       <c r="N3" t="n">
-        <v>276.1565137023554</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>269.1887005891755</v>
+        <v>269.1887005891756</v>
       </c>
       <c r="P3" t="n">
-        <v>74.61189100715683</v>
+        <v>198.8728484821096</v>
       </c>
       <c r="Q3" t="n">
-        <v>79.71116244199195</v>
+        <v>79.71116244199196</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34860,19 +34860,19 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>36.97916784721081</v>
+        <v>36.97916784721082</v>
       </c>
       <c r="M4" t="n">
         <v>49.4834113647894</v>
       </c>
       <c r="N4" t="n">
-        <v>53.79631798062263</v>
+        <v>53.79631798062265</v>
       </c>
       <c r="O4" t="n">
-        <v>33.51153056421935</v>
+        <v>33.51153056421936</v>
       </c>
       <c r="P4" t="n">
-        <v>4.916638815831893</v>
+        <v>4.916638815831902</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>36.9578617157309</v>
+        <v>36.9578617157303</v>
       </c>
       <c r="K5" t="n">
-        <v>177.3547031095854</v>
+        <v>177.3547031095845</v>
       </c>
       <c r="L5" t="n">
-        <v>272.8288662681401</v>
+        <v>272.828866268139</v>
       </c>
       <c r="M5" t="n">
-        <v>320.3489705744649</v>
+        <v>320.3489705744637</v>
       </c>
       <c r="N5" t="n">
-        <v>310.752756332076</v>
+        <v>310.7527563320747</v>
       </c>
       <c r="O5" t="n">
-        <v>247.790937276848</v>
+        <v>247.7909372768468</v>
       </c>
       <c r="P5" t="n">
-        <v>173.4288998900106</v>
+        <v>173.4288998900096</v>
       </c>
       <c r="Q5" t="n">
-        <v>52.23610365616076</v>
+        <v>52.23610365616</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>28.38217280371164</v>
       </c>
       <c r="K6" t="n">
-        <v>176.4094954976272</v>
+        <v>176.4094954976266</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>299.2289796944285</v>
       </c>
       <c r="M6" t="n">
-        <v>401.690369867365</v>
+        <v>401.690369867364</v>
       </c>
       <c r="N6" t="n">
-        <v>401.9852315905068</v>
+        <v>361.3666341505042</v>
       </c>
       <c r="O6" t="n">
-        <v>324.6214468093741</v>
+        <v>324.6214468093732</v>
       </c>
       <c r="P6" t="n">
-        <v>177.5412291786777</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>109.4513258794661</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,22 +35094,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>7.761044065328448</v>
+        <v>7.761044065328086</v>
       </c>
       <c r="L7" t="n">
-        <v>66.01877204942957</v>
+        <v>66.01877204942912</v>
       </c>
       <c r="M7" t="n">
-        <v>80.10160234307349</v>
+        <v>80.101602343073</v>
       </c>
       <c r="N7" t="n">
-        <v>83.68647681246492</v>
+        <v>83.68647681246443</v>
       </c>
       <c r="O7" t="n">
-        <v>61.11993010782321</v>
+        <v>61.11993010782277</v>
       </c>
       <c r="P7" t="n">
-        <v>28.54039412378825</v>
+        <v>28.54039412378787</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35185,10 +35185,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35261,13 +35261,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>515.9012490932192</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,16 +35407,16 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K11" t="n">
-        <v>661.3366991265651</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L11" t="n">
         <v>455.5901143923319</v>
       </c>
       <c r="M11" t="n">
-        <v>555.8458620146827</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N11" t="n">
         <v>989.6487598248955</v>
@@ -35425,7 +35425,7 @@
         <v>508.053000888219</v>
       </c>
       <c r="P11" t="n">
-        <v>720.5606943908542</v>
+        <v>443.0207044815684</v>
       </c>
       <c r="Q11" t="n">
         <v>463.1092954636241</v>
@@ -35659,13 +35659,13 @@
         <v>687.4322072151681</v>
       </c>
       <c r="O14" t="n">
-        <v>864.9997392913878</v>
+        <v>635.6527791348809</v>
       </c>
       <c r="P14" t="n">
-        <v>507.665444827693</v>
+        <v>524.6974143242943</v>
       </c>
       <c r="Q14" t="n">
-        <v>332.5762668227516</v>
+        <v>544.8912574826563</v>
       </c>
       <c r="R14" t="n">
         <v>172.9015754170063</v>
@@ -35732,22 +35732,22 @@
         <v>458.3824541356842</v>
       </c>
       <c r="M15" t="n">
-        <v>554.4630955659486</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>583.6922706327296</v>
       </c>
       <c r="O15" t="n">
-        <v>249.1164099475146</v>
+        <v>387.5527039148015</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>391.0116722749048</v>
       </c>
       <c r="Q15" t="n">
         <v>210.9575171831111</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>25.01512932375741</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35881,10 +35881,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>255.0635279116842</v>
+        <v>424.160143083758</v>
       </c>
       <c r="K17" t="n">
-        <v>433.5251384721831</v>
+        <v>450.5571079687844</v>
       </c>
       <c r="L17" t="n">
         <v>575.1007761169878</v>
@@ -35893,19 +35893,19 @@
         <v>671.8997542381569</v>
       </c>
       <c r="N17" t="n">
-        <v>1124.779131627152</v>
+        <v>687.4322072151681</v>
       </c>
       <c r="O17" t="n">
-        <v>662.4658499244601</v>
+        <v>635.6527791348809</v>
       </c>
       <c r="P17" t="n">
         <v>507.665444827693</v>
       </c>
       <c r="Q17" t="n">
-        <v>332.5762668227516</v>
+        <v>544.8912574826563</v>
       </c>
       <c r="R17" t="n">
-        <v>107.1851555440239</v>
+        <v>172.9015754170063</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35969,13 +35969,13 @@
         <v>458.3824541356842</v>
       </c>
       <c r="M18" t="n">
-        <v>412.5678332385584</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>583.6922706327296</v>
+        <v>484.7399473579041</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>511.5201565133839</v>
       </c>
       <c r="P18" t="n">
         <v>391.0116722749048</v>
@@ -36118,7 +36118,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>255.0635279116842</v>
+        <v>424.160143083758</v>
       </c>
       <c r="K20" t="n">
         <v>433.5251384721831</v>
@@ -36133,16 +36133,16 @@
         <v>687.4322072151681</v>
       </c>
       <c r="O20" t="n">
-        <v>1016.452960397626</v>
+        <v>635.6527791348809</v>
       </c>
       <c r="P20" t="n">
-        <v>507.665444827693</v>
+        <v>524.6974143242943</v>
       </c>
       <c r="Q20" t="n">
-        <v>415.9360807615687</v>
+        <v>544.8912574826563</v>
       </c>
       <c r="R20" t="n">
-        <v>107.1851555440239</v>
+        <v>172.9015754170063</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>132.9061636449188</v>
       </c>
       <c r="K21" t="n">
         <v>306.102070050368</v>
@@ -36206,10 +36206,10 @@
         <v>458.3824541356842</v>
       </c>
       <c r="M21" t="n">
-        <v>8.938711046336165</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>583.6922706327296</v>
+        <v>484.7399473579041</v>
       </c>
       <c r="O21" t="n">
         <v>511.5201565133839</v>
@@ -36221,7 +36221,7 @@
         <v>210.9575171831111</v>
       </c>
       <c r="R21" t="n">
-        <v>25.01512932375741</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36358,7 +36358,7 @@
         <v>255.0635279116842</v>
       </c>
       <c r="K23" t="n">
-        <v>433.5251384721831</v>
+        <v>619.653723140858</v>
       </c>
       <c r="L23" t="n">
         <v>575.1007761169878</v>
@@ -36367,19 +36367,19 @@
         <v>671.8997542381569</v>
       </c>
       <c r="N23" t="n">
-        <v>1124.779131627152</v>
+        <v>687.4322072151681</v>
       </c>
       <c r="O23" t="n">
         <v>635.6527791348809</v>
       </c>
       <c r="P23" t="n">
-        <v>534.4785156172725</v>
+        <v>507.665444827693</v>
       </c>
       <c r="Q23" t="n">
-        <v>332.5762668227516</v>
+        <v>544.8912574826563</v>
       </c>
       <c r="R23" t="n">
-        <v>107.1851555440239</v>
+        <v>172.9015754170063</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,7 +36437,7 @@
         <v>132.9061636449188</v>
       </c>
       <c r="K24" t="n">
-        <v>182.1346174517854</v>
+        <v>306.102070050368</v>
       </c>
       <c r="L24" t="n">
         <v>458.3824541356842</v>
@@ -36446,7 +36446,7 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>583.6922706327296</v>
+        <v>484.7399473579041</v>
       </c>
       <c r="O24" t="n">
         <v>511.5201565133839</v>
@@ -36458,7 +36458,7 @@
         <v>210.9575171831111</v>
       </c>
       <c r="R24" t="n">
-        <v>25.01512932375741</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36595,13 +36595,13 @@
         <v>255.0635279116842</v>
       </c>
       <c r="K26" t="n">
-        <v>460.3382092617608</v>
+        <v>433.5251384721831</v>
       </c>
       <c r="L26" t="n">
         <v>575.1007761169878</v>
       </c>
       <c r="M26" t="n">
-        <v>671.8997542381569</v>
+        <v>698.7128250277366</v>
       </c>
       <c r="N26" t="n">
         <v>1124.779131627152</v>
@@ -36680,19 +36680,19 @@
         <v>458.3824541356842</v>
       </c>
       <c r="M27" t="n">
-        <v>554.4630955659486</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>583.6922706327296</v>
+        <v>484.7399473579041</v>
       </c>
       <c r="O27" t="n">
-        <v>69.06225485572071</v>
+        <v>511.5201565133839</v>
       </c>
       <c r="P27" t="n">
         <v>391.0116722749048</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.9575171831111</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36832,28 +36832,28 @@
         <v>255.0635279116842</v>
       </c>
       <c r="K29" t="n">
-        <v>757.6705510433478</v>
+        <v>433.5251384721831</v>
       </c>
       <c r="L29" t="n">
         <v>575.1007761169878</v>
       </c>
       <c r="M29" t="n">
-        <v>671.8997542381569</v>
+        <v>1121.413287730989</v>
       </c>
       <c r="N29" t="n">
-        <v>687.4322072151681</v>
+        <v>702.0786689238996</v>
       </c>
       <c r="O29" t="n">
         <v>635.6527791348809</v>
       </c>
       <c r="P29" t="n">
-        <v>581.9636075851085</v>
+        <v>507.665444827693</v>
       </c>
       <c r="Q29" t="n">
         <v>332.5762668227516</v>
       </c>
       <c r="R29" t="n">
-        <v>172.9015754170063</v>
+        <v>107.1851555440239</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,28 +36911,28 @@
         <v>132.9061636449188</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>306.102070050368</v>
       </c>
       <c r="L30" t="n">
         <v>458.3824541356842</v>
       </c>
       <c r="M30" t="n">
-        <v>554.4630955659486</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>583.6922706327296</v>
+        <v>484.7399473579041</v>
       </c>
       <c r="O30" t="n">
         <v>511.5201565133839</v>
       </c>
       <c r="P30" t="n">
-        <v>18.68319416074139</v>
+        <v>391.0116722749048</v>
       </c>
       <c r="Q30" t="n">
         <v>210.9575171831111</v>
       </c>
       <c r="R30" t="n">
-        <v>25.01512932375741</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37084,7 +37084,7 @@
         <v>635.6527791348809</v>
       </c>
       <c r="P32" t="n">
-        <v>507.6654448276947</v>
+        <v>507.6654448276938</v>
       </c>
       <c r="Q32" t="n">
         <v>332.5762668227516</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>132.9061636449188</v>
       </c>
       <c r="K33" t="n">
         <v>306.102070050368</v>
@@ -37154,22 +37154,22 @@
         <v>458.3824541356842</v>
       </c>
       <c r="M33" t="n">
-        <v>554.4630955659486</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>583.6922706327296</v>
+        <v>484.7399473579039</v>
       </c>
       <c r="O33" t="n">
-        <v>176.9532891768821</v>
+        <v>511.5201565133839</v>
       </c>
       <c r="P33" t="n">
         <v>391.0116722749048</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.9575171831111</v>
       </c>
       <c r="R33" t="n">
-        <v>25.01512932375741</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37230,7 +37230,7 @@
         <v>277.1256801414977</v>
       </c>
       <c r="L34" t="n">
-        <v>401.8727935817349</v>
+        <v>401.8727935817348</v>
       </c>
       <c r="M34" t="n">
         <v>432.4942538895098</v>
@@ -37321,7 +37321,7 @@
         <v>635.6527791348809</v>
       </c>
       <c r="P35" t="n">
-        <v>507.6654448276947</v>
+        <v>507.665444827693</v>
       </c>
       <c r="Q35" t="n">
         <v>332.5762668227516</v>
@@ -37394,7 +37394,7 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>583.6922706327296</v>
+        <v>484.7399473579039</v>
       </c>
       <c r="O36" t="n">
         <v>511.5201565133839</v>
@@ -37403,10 +37403,10 @@
         <v>391.0116722749048</v>
       </c>
       <c r="Q36" t="n">
-        <v>86.99006458452799</v>
+        <v>210.9575171831111</v>
       </c>
       <c r="R36" t="n">
-        <v>25.01512932375741</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37546,7 +37546,7 @@
         <v>433.5251384721831</v>
       </c>
       <c r="L38" t="n">
-        <v>575.1007761169894</v>
+        <v>575.1007761169878</v>
       </c>
       <c r="M38" t="n">
         <v>671.8997542381569</v>
@@ -37558,7 +37558,7 @@
         <v>635.6527791348809</v>
       </c>
       <c r="P38" t="n">
-        <v>507.665444827693</v>
+        <v>507.6654448276938</v>
       </c>
       <c r="Q38" t="n">
         <v>332.5762668227516</v>
@@ -37631,19 +37631,19 @@
         <v>554.4630955659486</v>
       </c>
       <c r="N39" t="n">
-        <v>583.6922706327296</v>
+        <v>441.7970083053394</v>
       </c>
       <c r="O39" t="n">
-        <v>224.1012806237574</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>391.0116722749048</v>
       </c>
       <c r="Q39" t="n">
         <v>210.9575171831111</v>
       </c>
       <c r="R39" t="n">
-        <v>25.01512932375741</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37701,7 +37701,7 @@
         <v>101.2059290193558</v>
       </c>
       <c r="K40" t="n">
-        <v>277.1256801414977</v>
+        <v>277.1256801414978</v>
       </c>
       <c r="L40" t="n">
         <v>401.8727935817349</v>
@@ -37786,7 +37786,7 @@
         <v>575.1007761169878</v>
       </c>
       <c r="M41" t="n">
-        <v>671.8997542381577</v>
+        <v>671.8997542381569</v>
       </c>
       <c r="N41" t="n">
         <v>687.4322072151681</v>
@@ -37798,7 +37798,7 @@
         <v>507.665444827693</v>
       </c>
       <c r="Q41" t="n">
-        <v>332.5762668227516</v>
+        <v>332.5762668227526</v>
       </c>
       <c r="R41" t="n">
         <v>107.1851555440239</v>
@@ -37859,7 +37859,7 @@
         <v>132.9061636449188</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>306.102070050368</v>
       </c>
       <c r="L42" t="n">
         <v>458.3824541356842</v>
@@ -37868,19 +37868,19 @@
         <v>554.4630955659486</v>
       </c>
       <c r="N42" t="n">
-        <v>583.6922706327296</v>
+        <v>441.7970083053394</v>
       </c>
       <c r="O42" t="n">
-        <v>511.5201565133839</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>18.68319416074139</v>
+        <v>391.0116722749048</v>
       </c>
       <c r="Q42" t="n">
         <v>210.9575171831111</v>
       </c>
       <c r="R42" t="n">
-        <v>25.01512932375741</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38017,28 +38017,28 @@
         <v>255.0635279116842</v>
       </c>
       <c r="K44" t="n">
-        <v>433.5251384721831</v>
+        <v>433.525138472183</v>
       </c>
       <c r="L44" t="n">
-        <v>575.1007761169878</v>
+        <v>575.1007761169876</v>
       </c>
       <c r="M44" t="n">
-        <v>671.8997542381569</v>
+        <v>671.8997542381568</v>
       </c>
       <c r="N44" t="n">
         <v>687.4322072151681</v>
       </c>
       <c r="O44" t="n">
-        <v>635.6527791348809</v>
+        <v>635.6527791348808</v>
       </c>
       <c r="P44" t="n">
-        <v>507.665444827693</v>
+        <v>507.6654448276929</v>
       </c>
       <c r="Q44" t="n">
-        <v>332.5762668227516</v>
+        <v>332.5762668227514</v>
       </c>
       <c r="R44" t="n">
-        <v>107.1851555440239</v>
+        <v>107.1851555440256</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,28 +38096,28 @@
         <v>132.9061636449188</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>306.102070050368</v>
       </c>
       <c r="L45" t="n">
-        <v>458.3824541356842</v>
+        <v>458.3824541356841</v>
       </c>
       <c r="M45" t="n">
-        <v>554.4630955659486</v>
+        <v>554.4630955659484</v>
       </c>
       <c r="N45" t="n">
-        <v>583.6922706327296</v>
+        <v>583.6922706327294</v>
       </c>
       <c r="O45" t="n">
-        <v>511.5201565133839</v>
+        <v>69.06225485572118</v>
       </c>
       <c r="P45" t="n">
-        <v>229.6407113438524</v>
+        <v>391.0116722749046</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>25.01512932375741</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38175,10 +38175,10 @@
         <v>101.2059290193558</v>
       </c>
       <c r="K46" t="n">
-        <v>277.1256801414978</v>
+        <v>277.1256801414977</v>
       </c>
       <c r="L46" t="n">
-        <v>401.8727935817349</v>
+        <v>401.8727935817348</v>
       </c>
       <c r="M46" t="n">
         <v>432.4942538895098</v>
@@ -38190,7 +38190,7 @@
         <v>381.9794231908712</v>
       </c>
       <c r="P46" t="n">
-        <v>307.6533340553059</v>
+        <v>307.6533340553058</v>
       </c>
       <c r="Q46" t="n">
         <v>138.4502995641581</v>
